--- a/p_parameters/additional_concepts.xlsx
+++ b/p_parameters/additional_concepts.xlsx
@@ -1,181 +1,200 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_parameters/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0334039A-7098-1743-8A1C-1791DD893AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
-  <si>
-    <t xml:space="preserve">table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAP_NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StudyVar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">val_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">val_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">val_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">val_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">val_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">col_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">col_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">col_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">col_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">col_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_column</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_column2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVENTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GDM_diagnoses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">codesheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vocabulary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">event_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">event_record_vocabulary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start_date_record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDICAL_OBSERVATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mo_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mo_record_vocabulary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mo_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SURVEY_OBSERVATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">so_source_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">so_source_unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">so_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE_diagnoses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROCEDURES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GDM_procedures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">procedure_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">procedure_code_vocabulary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">procedure_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDICINES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GDM_medicines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medicinal_product_atc_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_dispensing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE_medicines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GDM_labtest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not_fixed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">primary_care_visit_laboratory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gp_exaval1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mo_source_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mo_meaning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mo_source_column</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="56">
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>DAP_NAME</t>
+  </si>
+  <si>
+    <t>StudyVar</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>val_1</t>
+  </si>
+  <si>
+    <t>val_2</t>
+  </si>
+  <si>
+    <t>val_3</t>
+  </si>
+  <si>
+    <t>val_4</t>
+  </si>
+  <si>
+    <t>val_5</t>
+  </si>
+  <si>
+    <t>col_1</t>
+  </si>
+  <si>
+    <t>col_2</t>
+  </si>
+  <si>
+    <t>col_3</t>
+  </si>
+  <si>
+    <t>col_4</t>
+  </si>
+  <si>
+    <t>col_5</t>
+  </si>
+  <si>
+    <t>date_column</t>
+  </si>
+  <si>
+    <t>date_column2</t>
+  </si>
+  <si>
+    <t>EVENTS</t>
+  </si>
+  <si>
+    <t>ARS</t>
+  </si>
+  <si>
+    <t>GDM_diagnoses</t>
+  </si>
+  <si>
+    <t>codesheet</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>vocabulary</t>
+  </si>
+  <si>
+    <t>event_code</t>
+  </si>
+  <si>
+    <t>event_record_vocabulary</t>
+  </si>
+  <si>
+    <t>start_date_record</t>
+  </si>
+  <si>
+    <t>MEDICAL_OBSERVATIONS</t>
+  </si>
+  <si>
+    <t>mo_code</t>
+  </si>
+  <si>
+    <t>mo_record_vocabulary</t>
+  </si>
+  <si>
+    <t>mo_date</t>
+  </si>
+  <si>
+    <t>SURVEY_OBSERVATIONS</t>
+  </si>
+  <si>
+    <t>so_source_value</t>
+  </si>
+  <si>
+    <t>so_source_unit</t>
+  </si>
+  <si>
+    <t>so_date</t>
+  </si>
+  <si>
+    <t>PE_diagnoses</t>
+  </si>
+  <si>
+    <t>PROCEDURES</t>
+  </si>
+  <si>
+    <t>GDM_procedures</t>
+  </si>
+  <si>
+    <t>procedure_code</t>
+  </si>
+  <si>
+    <t>procedure_code_vocabulary</t>
+  </si>
+  <si>
+    <t>procedure_date</t>
+  </si>
+  <si>
+    <t>MEDICINES</t>
+  </si>
+  <si>
+    <t>GDM_medicines</t>
+  </si>
+  <si>
+    <t>medicinal_product_atc_code</t>
+  </si>
+  <si>
+    <t>date_dispensing</t>
+  </si>
+  <si>
+    <t>PE_medicines</t>
+  </si>
+  <si>
+    <t>GDM_labtest</t>
+  </si>
+  <si>
+    <t>not_fixed</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>gp_exaval1</t>
+  </si>
+  <si>
+    <t>mo_source_value</t>
+  </si>
+  <si>
+    <t>mo_source_column</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>kma</t>
+  </si>
+  <si>
+    <t>so_source_column</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>kg/m2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -211,6 +230,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -492,14 +520,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -548,8 +588,11 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="Q1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -568,24 +611,17 @@
       <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
       <c r="J2" t="s">
         <v>22</v>
       </c>
       <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
       <c r="O2" t="s">
         <v>24</v>
       </c>
-      <c r="P2"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -604,24 +640,17 @@
       <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
       <c r="J3" t="s">
         <v>26</v>
       </c>
       <c r="K3" t="s">
         <v>27</v>
       </c>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
       <c r="O3" t="s">
         <v>28</v>
       </c>
-      <c r="P3"/>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -640,24 +669,17 @@
       <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
       <c r="J4" t="s">
         <v>30</v>
       </c>
       <c r="K4" t="s">
         <v>31</v>
       </c>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
       <c r="O4" t="s">
         <v>32</v>
       </c>
-      <c r="P4"/>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -676,24 +698,17 @@
       <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
       <c r="J5" t="s">
         <v>22</v>
       </c>
       <c r="K5" t="s">
         <v>23</v>
       </c>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
       <c r="O5" t="s">
         <v>24</v>
       </c>
-      <c r="P5"/>
-    </row>
-    <row r="6">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -712,24 +727,17 @@
       <c r="F6" t="s">
         <v>21</v>
       </c>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
       <c r="J6" t="s">
         <v>26</v>
       </c>
       <c r="K6" t="s">
         <v>27</v>
       </c>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
       <c r="O6" t="s">
         <v>28</v>
       </c>
-      <c r="P6"/>
-    </row>
-    <row r="7">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -748,24 +756,17 @@
       <c r="F7" t="s">
         <v>21</v>
       </c>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
       <c r="J7" t="s">
         <v>30</v>
       </c>
       <c r="K7" t="s">
         <v>31</v>
       </c>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
       <c r="O7" t="s">
         <v>32</v>
       </c>
-      <c r="P7"/>
-    </row>
-    <row r="8">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -784,24 +785,17 @@
       <c r="F8" t="s">
         <v>21</v>
       </c>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
       <c r="J8" t="s">
         <v>36</v>
       </c>
       <c r="K8" t="s">
         <v>37</v>
       </c>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
       <c r="O8" t="s">
         <v>38</v>
       </c>
-      <c r="P8"/>
-    </row>
-    <row r="9">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -817,23 +811,14 @@
       <c r="E9" t="s">
         <v>20</v>
       </c>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
       <c r="J9" t="s">
         <v>41</v>
       </c>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
       <c r="O9" t="s">
         <v>42</v>
       </c>
-      <c r="P9"/>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -849,23 +834,14 @@
       <c r="E10" t="s">
         <v>20</v>
       </c>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
       <c r="J10" t="s">
         <v>41</v>
       </c>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
       <c r="O10" t="s">
         <v>42</v>
       </c>
-      <c r="P10"/>
-    </row>
-    <row r="11">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -881,32 +857,82 @@
       <c r="E11" t="s">
         <v>46</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>47</v>
       </c>
-      <c r="G11" t="s">
+      <c r="J11" t="s">
         <v>48</v>
       </c>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>49</v>
       </c>
-      <c r="K11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11"/>
-      <c r="N11"/>
       <c r="O11" t="s">
         <v>28</v>
       </c>
-      <c r="P11"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/p_parameters/additional_concepts.xlsx
+++ b/p_parameters/additional_concepts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0334039A-7098-1743-8A1C-1791DD893AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976870E3-454B-3A4D-8AF8-25397A9BCE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="57">
   <si>
     <t>table</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>kg/m2</t>
+  </si>
+  <si>
+    <t>so_unit</t>
   </si>
 </sst>
 </file>
@@ -524,7 +527,7 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -673,7 +676,7 @@
         <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="O4" t="s">
         <v>32</v>
@@ -760,7 +763,7 @@
         <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="O7" t="s">
         <v>32</v>

--- a/p_parameters/additional_concepts.xlsx
+++ b/p_parameters/additional_concepts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976870E3-454B-3A4D-8AF8-25397A9BCE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C904E6-DEA3-7341-8C07-2A4A054C1F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="58">
   <si>
     <t>table</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>so_unit</t>
+  </si>
+  <si>
+    <t>Migraine_diagnoses</t>
   </si>
 </sst>
 </file>
@@ -524,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -934,6 +937,93 @@
         <v>30</v>
       </c>
     </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/p_parameters/additional_concepts.xlsx
+++ b/p_parameters/additional_concepts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCF7D62-4596-4C4A-A106-59524559D3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217FE331-0D43-4441-962A-D3FB3632EA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1020" windowWidth="27640" windowHeight="15940" xr2:uid="{0939CFEC-D1BA-1D42-BACE-55536FF5F5D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="49">
   <si>
     <t>table</t>
   </si>
@@ -116,12 +116,6 @@
     <t>SURVEY_OBSERVATIONS</t>
   </si>
   <si>
-    <t>GDM_diagnoses_cat</t>
-  </si>
-  <si>
-    <t>DM</t>
-  </si>
-  <si>
     <t>not_fixed</t>
   </si>
   <si>
@@ -137,9 +131,6 @@
     <t>so_date</t>
   </si>
   <si>
-    <t>UNK_GD</t>
-  </si>
-  <si>
     <t>PE_checkbox</t>
   </si>
   <si>
@@ -186,6 +177,12 @@
   </si>
   <si>
     <t>date_dispensing</t>
+  </si>
+  <si>
+    <t>GDM</t>
+  </si>
+  <si>
+    <t>GDM_checkbox</t>
   </si>
 </sst>
 </file>
@@ -537,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FD393A-5674-3749-B00C-5DA732AD43E3}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -572,7 +569,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -581,7 +578,7 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -613,13 +610,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -642,13 +639,13 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -671,13 +668,13 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -700,46 +697,34 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
+      <c r="L5" t="s">
         <v>29</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="P5" t="s">
         <v>30</v>
       </c>
-      <c r="L5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" t="s">
-        <v>32</v>
-      </c>
       <c r="R5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -747,34 +732,34 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="P6" t="s">
         <v>30</v>
       </c>
-      <c r="L6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" t="s">
-        <v>32</v>
-      </c>
       <c r="R6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -782,34 +767,40 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
         <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
       <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" t="s">
         <v>30</v>
       </c>
-      <c r="L7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" t="s">
-        <v>32</v>
-      </c>
       <c r="R7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -817,40 +808,34 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
       <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" t="s">
         <v>30</v>
       </c>
-      <c r="L8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" t="s">
-        <v>32</v>
-      </c>
       <c r="R8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -858,92 +843,57 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
         <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" t="s">
         <v>30</v>
       </c>
-      <c r="L9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9" t="s">
-        <v>32</v>
-      </c>
       <c r="R9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" t="s">
         <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" t="s">
-        <v>44</v>
-      </c>
-      <c r="P11" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/p_parameters/additional_concepts.xlsx
+++ b/p_parameters/additional_concepts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217FE331-0D43-4441-962A-D3FB3632EA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E232094C-EC89-A148-8F85-C94AF15B4730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1020" windowWidth="27640" windowHeight="15940" xr2:uid="{0939CFEC-D1BA-1D42-BACE-55536FF5F5D7}"/>
+    <workbookView xWindow="1160" yWindow="660" windowWidth="27640" windowHeight="15940" xr2:uid="{0939CFEC-D1BA-1D42-BACE-55536FF5F5D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="51">
   <si>
     <t>table</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>GDM_checkbox</t>
+  </si>
+  <si>
+    <t>UOSL</t>
+  </si>
+  <si>
+    <t>Migraine_medicines</t>
   </si>
 </sst>
 </file>
@@ -534,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FD393A-5674-3749-B00C-5DA732AD43E3}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -896,6 +902,320 @@
         <v>46</v>
       </c>
     </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="K14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" t="s">
+        <v>30</v>
+      </c>
+      <c r="R14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" t="s">
+        <v>30</v>
+      </c>
+      <c r="R16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" t="s">
+        <v>41</v>
+      </c>
+      <c r="P20" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/p_parameters/additional_concepts.xlsx
+++ b/p_parameters/additional_concepts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E232094C-EC89-A148-8F85-C94AF15B4730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA3586B-F4D0-EA41-BC1B-0B8632237947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="660" windowWidth="27640" windowHeight="15940" xr2:uid="{0939CFEC-D1BA-1D42-BACE-55536FF5F5D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="51">
   <si>
     <t>table</t>
   </si>
@@ -188,7 +188,7 @@
     <t>UOSL</t>
   </si>
   <si>
-    <t>Migraine_medicines</t>
+    <t>eklampsi</t>
   </si>
 </sst>
 </file>
@@ -540,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FD393A-5674-3749-B00C-5DA732AD43E3}">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1009,7 +1009,7 @@
         <v>27</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K14" t="s">
         <v>28</v>
@@ -1041,7 +1041,7 @@
         <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1190,29 +1190,6 @@
         <v>41</v>
       </c>
       <c r="P19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" t="s">
-        <v>41</v>
-      </c>
-      <c r="P20" t="s">
         <v>46</v>
       </c>
     </row>

--- a/p_parameters/additional_concepts.xlsx
+++ b/p_parameters/additional_concepts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/candaurn/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC081F1B-C0A3-8148-BA9C-9B8934838919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28487A6D-5372-064B-A41B-350175135625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15660" xr2:uid="{0939CFEC-D1BA-1D42-BACE-55536FF5F5D7}"/>
   </bookViews>
@@ -191,9 +191,6 @@
     <t>eklampsi</t>
   </si>
   <si>
-    <t>EFEMERIS</t>
-  </si>
-  <si>
     <t>DM_checkbox</t>
   </si>
   <si>
@@ -228,6 +225,9 @@
   </si>
   <si>
     <t>rkouris</t>
+  </si>
+  <si>
+    <t>CHUT</t>
   </si>
 </sst>
 </file>
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FD393A-5674-3749-B00C-5DA732AD43E3}">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1247,7 +1247,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -1276,7 +1276,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -1305,7 +1305,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
@@ -1334,19 +1334,19 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
         <v>51</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>52</v>
-      </c>
-      <c r="D23" t="s">
-        <v>53</v>
       </c>
       <c r="E23" t="s">
         <v>26</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -1372,19 +1372,19 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
         <v>51</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>52</v>
-      </c>
-      <c r="D24" t="s">
-        <v>53</v>
       </c>
       <c r="E24" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
@@ -1410,7 +1410,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
         <v>31</v>
@@ -1422,7 +1422,7 @@
         <v>26</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
@@ -1448,7 +1448,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
@@ -1460,7 +1460,7 @@
         <v>26</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
@@ -1486,7 +1486,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
         <v>31</v>
@@ -1498,7 +1498,7 @@
         <v>26</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
@@ -1524,7 +1524,7 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
         <v>40</v>
@@ -1547,7 +1547,7 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
@@ -1576,7 +1576,7 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
@@ -1605,7 +1605,7 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
         <v>24</v>
@@ -1634,7 +1634,7 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
         <v>40</v>
@@ -1657,7 +1657,7 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
@@ -1686,7 +1686,7 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
         <v>23</v>
@@ -1715,7 +1715,7 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
         <v>24</v>
@@ -1744,7 +1744,7 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
         <v>40</v>
@@ -1767,7 +1767,7 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
         <v>17</v>
@@ -1796,7 +1796,7 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s">
         <v>23</v>
@@ -1825,7 +1825,7 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
         <v>24</v>
@@ -1854,7 +1854,7 @@
         <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
         <v>48</v>
@@ -1866,7 +1866,7 @@
         <v>26</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1889,7 +1889,7 @@
         <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
         <v>31</v>
@@ -1901,7 +1901,7 @@
         <v>26</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1924,7 +1924,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
         <v>40</v>

--- a/p_parameters/additional_concepts.xlsx
+++ b/p_parameters/additional_concepts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28487A6D-5372-064B-A41B-350175135625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C46600-075A-F44C-B44E-001A33A6D712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15660" xr2:uid="{0939CFEC-D1BA-1D42-BACE-55536FF5F5D7}"/>
+    <workbookView xWindow="1840" yWindow="500" windowWidth="27640" windowHeight="15660" xr2:uid="{0939CFEC-D1BA-1D42-BACE-55536FF5F5D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="71">
   <si>
     <t>table</t>
   </si>
@@ -215,12 +215,6 @@
     <t>FISABIO</t>
   </si>
   <si>
-    <t>SAIL</t>
-  </si>
-  <si>
-    <t>THL</t>
-  </si>
-  <si>
     <t>sokeri_patol</t>
   </si>
   <si>
@@ -228,6 +222,33 @@
   </si>
   <si>
     <t>CHUT</t>
+  </si>
+  <si>
+    <t>USWAN</t>
+  </si>
+  <si>
+    <t>NIHW</t>
+  </si>
+  <si>
+    <t>GDM_survey_dx</t>
+  </si>
+  <si>
+    <t>pat_grav1</t>
+  </si>
+  <si>
+    <t>ICD9</t>
+  </si>
+  <si>
+    <t>so_unit</t>
+  </si>
+  <si>
+    <t>pat_grav2</t>
+  </si>
+  <si>
+    <t>PE_survey_dx</t>
+  </si>
+  <si>
+    <t>FERR</t>
   </si>
 </sst>
 </file>
@@ -589,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FD393A-5674-3749-B00C-5DA732AD43E3}">
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1247,7 +1268,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -1276,7 +1297,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -1305,7 +1326,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
@@ -1334,7 +1355,7 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
         <v>51</v>
@@ -1372,7 +1393,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
         <v>51</v>
@@ -1410,7 +1431,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
         <v>31</v>
@@ -1448,7 +1469,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
@@ -1486,7 +1507,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
         <v>31</v>
@@ -1524,7 +1545,7 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
         <v>40</v>
@@ -1657,7 +1678,7 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
@@ -1686,7 +1707,7 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
         <v>23</v>
@@ -1715,7 +1736,7 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
         <v>24</v>
@@ -1744,7 +1765,7 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
         <v>40</v>
@@ -1767,7 +1788,7 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
         <v>17</v>
@@ -1796,7 +1817,7 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
         <v>23</v>
@@ -1825,7 +1846,7 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
         <v>24</v>
@@ -1854,7 +1875,7 @@
         <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C40" t="s">
         <v>48</v>
@@ -1866,7 +1887,7 @@
         <v>26</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1889,7 +1910,7 @@
         <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C41" t="s">
         <v>31</v>
@@ -1901,7 +1922,7 @@
         <v>26</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1924,7 +1945,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s">
         <v>40</v>
@@ -1939,6 +1960,280 @@
         <v>41</v>
       </c>
       <c r="P42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" t="s">
+        <v>21</v>
+      </c>
+      <c r="P43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" t="s">
+        <v>21</v>
+      </c>
+      <c r="P44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" t="s">
+        <v>21</v>
+      </c>
+      <c r="P45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>65</v>
+      </c>
+      <c r="G46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" t="s">
+        <v>66</v>
+      </c>
+      <c r="K46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L46" t="s">
+        <v>29</v>
+      </c>
+      <c r="M46" t="s">
+        <v>67</v>
+      </c>
+      <c r="P46" t="s">
+        <v>30</v>
+      </c>
+      <c r="R46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>68</v>
+      </c>
+      <c r="G47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" t="s">
+        <v>66</v>
+      </c>
+      <c r="K47" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47" t="s">
+        <v>29</v>
+      </c>
+      <c r="M47" t="s">
+        <v>67</v>
+      </c>
+      <c r="P47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>65</v>
+      </c>
+      <c r="G48" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K48" t="s">
+        <v>28</v>
+      </c>
+      <c r="L48" t="s">
+        <v>29</v>
+      </c>
+      <c r="M48" t="s">
+        <v>67</v>
+      </c>
+      <c r="P48" t="s">
+        <v>30</v>
+      </c>
+      <c r="R48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>68</v>
+      </c>
+      <c r="G49" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" t="s">
+        <v>66</v>
+      </c>
+      <c r="K49" t="s">
+        <v>28</v>
+      </c>
+      <c r="L49" t="s">
+        <v>29</v>
+      </c>
+      <c r="M49" t="s">
+        <v>67</v>
+      </c>
+      <c r="P49" t="s">
+        <v>30</v>
+      </c>
+      <c r="R49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" t="s">
+        <v>41</v>
+      </c>
+      <c r="P50" t="s">
         <v>46</v>
       </c>
     </row>

--- a/p_parameters/additional_concepts.xlsx
+++ b/p_parameters/additional_concepts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C46600-075A-F44C-B44E-001A33A6D712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE7069E-8CBD-054F-AA95-DF69C1801747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="500" windowWidth="27640" windowHeight="15660" xr2:uid="{0939CFEC-D1BA-1D42-BACE-55536FF5F5D7}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15660" xr2:uid="{0939CFEC-D1BA-1D42-BACE-55536FF5F5D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="71">
   <si>
     <t>table</t>
   </si>
@@ -610,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FD393A-5674-3749-B00C-5DA732AD43E3}">
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1878,31 +1878,25 @@
         <v>63</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E40" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="G40" t="s">
+        <v>19</v>
       </c>
       <c r="K40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L40" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="P40" t="s">
         <v>30</v>
-      </c>
-      <c r="R40" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
@@ -1913,42 +1907,36 @@
         <v>63</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E41" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="G41" t="s">
+        <v>19</v>
       </c>
       <c r="K41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L41" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="P41" t="s">
         <v>30</v>
       </c>
-      <c r="R41" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
         <v>63</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E42" t="s">
         <v>44</v>
@@ -1956,80 +1944,98 @@
       <c r="F42" t="s">
         <v>18</v>
       </c>
+      <c r="G42" t="s">
+        <v>19</v>
+      </c>
       <c r="K42" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="L42" t="s">
+        <v>67</v>
       </c>
       <c r="P42" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>48</v>
+      </c>
+      <c r="D43" t="s">
+        <v>47</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>19</v>
+        <v>59</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L43" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="P43" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="R43" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C44" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="D44" t="s">
+        <v>32</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>19</v>
+        <v>60</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L44" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="P44" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="R44" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E45" t="s">
         <v>44</v>
@@ -2037,140 +2043,98 @@
       <c r="F45" t="s">
         <v>18</v>
       </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
       <c r="K45" t="s">
-        <v>20</v>
-      </c>
-      <c r="L45" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="P45" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
         <v>70</v>
       </c>
       <c r="C46" t="s">
-        <v>64</v>
-      </c>
-      <c r="D46" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>18</v>
-      </c>
-      <c r="H46" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="K46" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L46" t="s">
-        <v>29</v>
-      </c>
-      <c r="M46" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="P46" t="s">
-        <v>30</v>
-      </c>
-      <c r="R46" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B47" t="s">
         <v>70</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E47" t="s">
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="K47" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L47" t="s">
-        <v>29</v>
-      </c>
-      <c r="M47" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="P47" t="s">
-        <v>30</v>
-      </c>
-      <c r="R47" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B48" t="s">
         <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E48" t="s">
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="G48" t="s">
-        <v>18</v>
-      </c>
-      <c r="H48" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="K48" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L48" t="s">
-        <v>29</v>
-      </c>
-      <c r="M48" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="P48" t="s">
-        <v>30</v>
-      </c>
-      <c r="R48" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
@@ -2181,16 +2145,16 @@
         <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D49" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E49" t="s">
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G49" t="s">
         <v>18</v>
@@ -2216,24 +2180,147 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B50" t="s">
         <v>70</v>
       </c>
       <c r="C50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>68</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" t="s">
+        <v>66</v>
+      </c>
+      <c r="K50" t="s">
+        <v>28</v>
+      </c>
+      <c r="L50" t="s">
+        <v>29</v>
+      </c>
+      <c r="M50" t="s">
+        <v>67</v>
+      </c>
+      <c r="P50" t="s">
+        <v>30</v>
+      </c>
+      <c r="R50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>65</v>
+      </c>
+      <c r="G51" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" t="s">
+        <v>66</v>
+      </c>
+      <c r="K51" t="s">
+        <v>28</v>
+      </c>
+      <c r="L51" t="s">
+        <v>29</v>
+      </c>
+      <c r="M51" t="s">
+        <v>67</v>
+      </c>
+      <c r="P51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" t="s">
+        <v>66</v>
+      </c>
+      <c r="K52" t="s">
+        <v>28</v>
+      </c>
+      <c r="L52" t="s">
+        <v>29</v>
+      </c>
+      <c r="M52" t="s">
+        <v>67</v>
+      </c>
+      <c r="P52" t="s">
+        <v>30</v>
+      </c>
+      <c r="R52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" t="s">
         <v>40</v>
       </c>
-      <c r="E50" t="s">
-        <v>44</v>
-      </c>
-      <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="K50" t="s">
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" t="s">
         <v>41</v>
       </c>
-      <c r="P50" t="s">
+      <c r="P53" t="s">
         <v>46</v>
       </c>
     </row>

--- a/p_parameters/additional_concepts.xlsx
+++ b/p_parameters/additional_concepts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE7069E-8CBD-054F-AA95-DF69C1801747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290ADFDB-F267-C443-A42E-CDBAD22D884B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15660" xr2:uid="{0939CFEC-D1BA-1D42-BACE-55536FF5F5D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="71">
   <si>
     <t>table</t>
   </si>
@@ -227,9 +227,6 @@
     <t>USWAN</t>
   </si>
   <si>
-    <t>NIHW</t>
-  </si>
-  <si>
     <t>GDM_survey_dx</t>
   </si>
   <si>
@@ -249,6 +246,9 @@
   </si>
   <si>
     <t>FERR</t>
+  </si>
+  <si>
+    <t>THL</t>
   </si>
 </sst>
 </file>
@@ -610,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FD393A-5674-3749-B00C-5DA732AD43E3}">
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -951,13 +951,13 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
         <v>44</v>
@@ -965,22 +965,28 @@
       <c r="F10" t="s">
         <v>18</v>
       </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="L10" t="s">
+        <v>66</v>
       </c>
       <c r="P10" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
         <v>44</v>
@@ -992,24 +998,24 @@
         <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L11" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="P11" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
         <v>44</v>
@@ -1021,24 +1027,24 @@
         <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L12" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="P12" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
         <v>44</v>
@@ -1046,128 +1052,98 @@
       <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
       <c r="K13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="P13" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
       </c>
       <c r="K14" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L14" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="P14" t="s">
-        <v>30</v>
-      </c>
-      <c r="R14" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
       </c>
       <c r="K15" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L15" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="P15" t="s">
-        <v>30</v>
-      </c>
-      <c r="R15" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
       </c>
       <c r="K16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="P16" t="s">
-        <v>30</v>
-      </c>
-      <c r="R16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
@@ -1178,19 +1154,19 @@
         <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
         <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K17" t="s">
         <v>28</v>
@@ -1216,13 +1192,13 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
         <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1242,94 +1218,124 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>35</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
       </c>
       <c r="K19" t="s">
-        <v>41</v>
+        <v>28</v>
+      </c>
+      <c r="L19" t="s">
+        <v>29</v>
       </c>
       <c r="P19" t="s">
-        <v>46</v>
+        <v>30</v>
+      </c>
+      <c r="R19" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L20" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="P20" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="R20" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
+        <v>38</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L21" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="P21" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="R21" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
         <v>44</v>
@@ -1337,17 +1343,11 @@
       <c r="F22" t="s">
         <v>18</v>
       </c>
-      <c r="G22" t="s">
-        <v>19</v>
-      </c>
       <c r="K22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="P22" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
@@ -1355,37 +1355,28 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
       <c r="K23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L23" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="P23" t="s">
         <v>30</v>
-      </c>
-      <c r="R23" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
@@ -1393,37 +1384,28 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
       <c r="K24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L24" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="P24" t="s">
         <v>30</v>
-      </c>
-      <c r="R24" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
@@ -1431,75 +1413,57 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
       <c r="K25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L25" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="P25" t="s">
         <v>30</v>
-      </c>
-      <c r="R25" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
         <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
       <c r="K26" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L26" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="P26" t="s">
-        <v>30</v>
-      </c>
-      <c r="R26" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
@@ -1510,16 +1474,16 @@
         <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E27" t="s">
         <v>26</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
@@ -1542,112 +1506,154 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>51</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" t="s">
-        <v>18</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
       <c r="K28" t="s">
-        <v>41</v>
+        <v>28</v>
+      </c>
+      <c r="L28" t="s">
+        <v>29</v>
       </c>
       <c r="P28" t="s">
-        <v>46</v>
+        <v>30</v>
+      </c>
+      <c r="R28" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
       <c r="K29" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L29" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="P29" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="R29" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
       <c r="K30" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L30" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="P30" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="R30" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
       <c r="K31" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L31" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="P31" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="R31" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
@@ -1655,7 +1661,7 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
         <v>40</v>
@@ -1678,7 +1684,7 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
@@ -1707,7 +1713,7 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
         <v>23</v>
@@ -1736,7 +1742,7 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
         <v>24</v>
@@ -1765,7 +1771,7 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
         <v>40</v>
@@ -1788,7 +1794,7 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
         <v>17</v>
@@ -1817,7 +1823,7 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
         <v>23</v>
@@ -1846,7 +1852,7 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
         <v>24</v>
@@ -1872,13 +1878,13 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E40" t="s">
         <v>44</v>
@@ -1886,28 +1892,22 @@
       <c r="F40" t="s">
         <v>18</v>
       </c>
-      <c r="G40" t="s">
-        <v>19</v>
-      </c>
       <c r="K40" t="s">
-        <v>29</v>
-      </c>
-      <c r="L40" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="P40" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E41" t="s">
         <v>44</v>
@@ -1919,24 +1919,24 @@
         <v>19</v>
       </c>
       <c r="K41" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="L41" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="P41" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E42" t="s">
         <v>44</v>
@@ -1948,48 +1948,42 @@
         <v>19</v>
       </c>
       <c r="K42" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="L42" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="P42" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E43" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>59</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="G43" t="s">
+        <v>19</v>
       </c>
       <c r="K43" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L43" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="P43" t="s">
-        <v>30</v>
-      </c>
-      <c r="R43" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
@@ -1997,45 +1991,39 @@
         <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="G44" t="s">
+        <v>19</v>
       </c>
       <c r="K44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L44" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="P44" t="s">
         <v>30</v>
-      </c>
-      <c r="R44" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E45" t="s">
         <v>44</v>
@@ -2043,22 +2031,28 @@
       <c r="F45" t="s">
         <v>18</v>
       </c>
+      <c r="G45" t="s">
+        <v>19</v>
+      </c>
       <c r="K45" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="L45" t="s">
+        <v>66</v>
       </c>
       <c r="P45" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
         <v>70</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
@@ -2070,257 +2064,379 @@
         <v>19</v>
       </c>
       <c r="K46" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L46" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="P46" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B47" t="s">
         <v>70</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="D47" t="s">
+        <v>47</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>19</v>
+        <v>59</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L47" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="P47" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="R47" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
         <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>24</v>
+        <v>31</v>
+      </c>
+      <c r="D48" t="s">
+        <v>32</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>19</v>
+        <v>60</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L48" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="P48" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="R48" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B49" t="s">
         <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E49" t="s">
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>65</v>
-      </c>
-      <c r="G49" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="K49" t="s">
-        <v>28</v>
-      </c>
-      <c r="L49" t="s">
-        <v>29</v>
-      </c>
-      <c r="M49" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="P49" t="s">
-        <v>30</v>
-      </c>
-      <c r="R49" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
-      </c>
-      <c r="D50" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E50" t="s">
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="G50" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="K50" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L50" t="s">
-        <v>29</v>
-      </c>
-      <c r="M50" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="P50" t="s">
-        <v>30</v>
-      </c>
-      <c r="R50" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
-        <v>69</v>
-      </c>
-      <c r="D51" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E51" t="s">
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H51" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="K51" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L51" t="s">
-        <v>29</v>
-      </c>
-      <c r="M51" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="P51" t="s">
-        <v>30</v>
-      </c>
-      <c r="R51" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C52" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E52" t="s">
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="G52" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="K52" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L52" t="s">
-        <v>29</v>
-      </c>
-      <c r="M52" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="P52" t="s">
-        <v>30</v>
-      </c>
-      <c r="R52" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>64</v>
+      </c>
+      <c r="G53" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" t="s">
+        <v>65</v>
+      </c>
+      <c r="K53" t="s">
+        <v>28</v>
+      </c>
+      <c r="L53" t="s">
+        <v>29</v>
+      </c>
+      <c r="M53" t="s">
+        <v>66</v>
+      </c>
+      <c r="P53" t="s">
+        <v>30</v>
+      </c>
+      <c r="R53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>67</v>
+      </c>
+      <c r="G54" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" t="s">
+        <v>65</v>
+      </c>
+      <c r="K54" t="s">
+        <v>28</v>
+      </c>
+      <c r="L54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M54" t="s">
+        <v>66</v>
+      </c>
+      <c r="P54" t="s">
+        <v>30</v>
+      </c>
+      <c r="R54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>64</v>
+      </c>
+      <c r="G55" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" t="s">
+        <v>65</v>
+      </c>
+      <c r="K55" t="s">
+        <v>28</v>
+      </c>
+      <c r="L55" t="s">
+        <v>29</v>
+      </c>
+      <c r="M55" t="s">
+        <v>66</v>
+      </c>
+      <c r="P55" t="s">
+        <v>30</v>
+      </c>
+      <c r="R55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>34</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>67</v>
+      </c>
+      <c r="G56" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" t="s">
+        <v>65</v>
+      </c>
+      <c r="K56" t="s">
+        <v>28</v>
+      </c>
+      <c r="L56" t="s">
+        <v>29</v>
+      </c>
+      <c r="M56" t="s">
+        <v>66</v>
+      </c>
+      <c r="P56" t="s">
+        <v>30</v>
+      </c>
+      <c r="R56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>39</v>
       </c>
-      <c r="B53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B57" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" t="s">
         <v>40</v>
       </c>
-      <c r="E53" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="K53" t="s">
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" t="s">
         <v>41</v>
       </c>
-      <c r="P53" t="s">
+      <c r="P57" t="s">
         <v>46</v>
       </c>
     </row>

--- a/p_parameters/additional_concepts.xlsx
+++ b/p_parameters/additional_concepts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290ADFDB-F267-C443-A42E-CDBAD22D884B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CEC166-B23A-5241-8AE3-26C3456006DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15660" xr2:uid="{0939CFEC-D1BA-1D42-BACE-55536FF5F5D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="74">
   <si>
     <t>table</t>
   </si>
@@ -249,6 +249,15 @@
   </si>
   <si>
     <t>THL</t>
+  </si>
+  <si>
+    <t>GDM_cat_diagnoses</t>
+  </si>
+  <si>
+    <t>PE_cat_diagnoses</t>
+  </si>
+  <si>
+    <t>Migraine_cat_diagnoses</t>
   </si>
 </sst>
 </file>
@@ -612,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FD393A-5674-3749-B00C-5DA732AD43E3}">
   <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1358,7 +1367,7 @@
         <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="E23" t="s">
         <v>44</v>
@@ -1387,7 +1396,7 @@
         <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="E24" t="s">
         <v>44</v>
@@ -1416,7 +1425,7 @@
         <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="E25" t="s">
         <v>44</v>
@@ -1994,7 +2003,7 @@
         <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="E44" t="s">
         <v>44</v>
@@ -2023,7 +2032,7 @@
         <v>70</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="E45" t="s">
         <v>44</v>
@@ -2052,7 +2061,7 @@
         <v>70</v>
       </c>
       <c r="C46" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>

--- a/p_parameters/additional_concepts.xlsx
+++ b/p_parameters/additional_concepts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CEC166-B23A-5241-8AE3-26C3456006DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D893A4-17A5-3A45-BF60-4C45B5A1D678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15660" xr2:uid="{0939CFEC-D1BA-1D42-BACE-55536FF5F5D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0939CFEC-D1BA-1D42-BACE-55536FF5F5D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="74">
   <si>
     <t>table</t>
   </si>
@@ -619,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FD393A-5674-3749-B00C-5DA732AD43E3}">
-  <dimension ref="A1:R57"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1361,13 +1361,13 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
         <v>44</v>
@@ -1379,13 +1379,13 @@
         <v>19</v>
       </c>
       <c r="K23" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="L23" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="P23" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
@@ -1393,28 +1393,37 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>19</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
       <c r="K24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L24" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="P24" t="s">
         <v>30</v>
+      </c>
+      <c r="R24" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
@@ -1422,57 +1431,75 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>19</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
       <c r="K25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L25" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="P25" t="s">
         <v>30</v>
+      </c>
+      <c r="R25" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>19</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
       <c r="K26" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L26" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="P26" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="R26" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
@@ -1483,16 +1510,16 @@
         <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E27" t="s">
         <v>26</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
@@ -1521,16 +1548,16 @@
         <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E28" t="s">
         <v>26</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
@@ -1553,127 +1580,94 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
         <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
       <c r="K29" t="s">
-        <v>28</v>
-      </c>
-      <c r="L29" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="P29" t="s">
-        <v>30</v>
-      </c>
-      <c r="R29" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
       <c r="K30" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L30" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="P30" t="s">
-        <v>30</v>
-      </c>
-      <c r="R30" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
       <c r="K31" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L31" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="P31" t="s">
-        <v>30</v>
-      </c>
-      <c r="R31" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E32" t="s">
         <v>44</v>
@@ -1681,22 +1675,28 @@
       <c r="F32" t="s">
         <v>18</v>
       </c>
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
       <c r="K32" t="s">
-        <v>41</v>
+        <v>20</v>
+      </c>
+      <c r="L32" t="s">
+        <v>21</v>
       </c>
       <c r="P32" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E33" t="s">
         <v>44</v>
@@ -1704,17 +1704,11 @@
       <c r="F33" t="s">
         <v>18</v>
       </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
       <c r="K33" t="s">
-        <v>20</v>
-      </c>
-      <c r="L33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="P33" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
@@ -1722,10 +1716,10 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E34" t="s">
         <v>44</v>
@@ -1751,10 +1745,10 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E35" t="s">
         <v>44</v>
@@ -1777,13 +1771,13 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E36" t="s">
         <v>44</v>
@@ -1791,22 +1785,28 @@
       <c r="F36" t="s">
         <v>18</v>
       </c>
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
       <c r="K36" t="s">
-        <v>41</v>
+        <v>20</v>
+      </c>
+      <c r="L36" t="s">
+        <v>21</v>
       </c>
       <c r="P36" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E37" t="s">
         <v>44</v>
@@ -1814,17 +1814,11 @@
       <c r="F37" t="s">
         <v>18</v>
       </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
       <c r="K37" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="P37" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -1832,10 +1826,10 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E38" t="s">
         <v>44</v>
@@ -1861,10 +1855,10 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E39" t="s">
         <v>44</v>
@@ -1887,13 +1881,13 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E40" t="s">
         <v>44</v>
@@ -1901,22 +1895,28 @@
       <c r="F40" t="s">
         <v>18</v>
       </c>
+      <c r="G40" t="s">
+        <v>19</v>
+      </c>
       <c r="K40" t="s">
-        <v>41</v>
+        <v>20</v>
+      </c>
+      <c r="L40" t="s">
+        <v>21</v>
       </c>
       <c r="P40" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
         <v>70</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="E41" t="s">
         <v>44</v>
@@ -1928,24 +1928,24 @@
         <v>19</v>
       </c>
       <c r="K41" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L41" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="P41" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
         <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="E42" t="s">
         <v>44</v>
@@ -1957,24 +1957,24 @@
         <v>19</v>
       </c>
       <c r="K42" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L42" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="P42" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
         <v>70</v>
       </c>
       <c r="C43" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="E43" t="s">
         <v>44</v>
@@ -1986,13 +1986,13 @@
         <v>19</v>
       </c>
       <c r="K43" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L43" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="P43" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
@@ -2003,25 +2003,31 @@
         <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>71</v>
+        <v>48</v>
+      </c>
+      <c r="D44" t="s">
+        <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>19</v>
+        <v>59</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L44" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="P44" t="s">
         <v>30</v>
+      </c>
+      <c r="R44" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
@@ -2032,36 +2038,42 @@
         <v>70</v>
       </c>
       <c r="C45" t="s">
-        <v>72</v>
+        <v>31</v>
+      </c>
+      <c r="D45" t="s">
+        <v>32</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
+        <v>60</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L45" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="P45" t="s">
         <v>30</v>
+      </c>
+      <c r="R45" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B46" t="s">
         <v>70</v>
       </c>
       <c r="C46" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
@@ -2069,98 +2081,80 @@
       <c r="F46" t="s">
         <v>18</v>
       </c>
-      <c r="G46" t="s">
-        <v>19</v>
-      </c>
       <c r="K46" t="s">
-        <v>29</v>
-      </c>
-      <c r="L46" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="P46" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E47" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="G47" t="s">
+        <v>19</v>
       </c>
       <c r="K47" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L47" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="P47" t="s">
-        <v>30</v>
-      </c>
-      <c r="R47" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
-      </c>
-      <c r="D48" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E48" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="G48" t="s">
+        <v>19</v>
       </c>
       <c r="K48" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L48" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="P48" t="s">
-        <v>30</v>
-      </c>
-      <c r="R48" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E49" t="s">
         <v>44</v>
@@ -2168,98 +2162,140 @@
       <c r="F49" t="s">
         <v>18</v>
       </c>
+      <c r="G49" t="s">
+        <v>19</v>
+      </c>
       <c r="K49" t="s">
-        <v>41</v>
+        <v>20</v>
+      </c>
+      <c r="L49" t="s">
+        <v>21</v>
       </c>
       <c r="P49" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B50" t="s">
         <v>69</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>63</v>
+      </c>
+      <c r="D50" t="s">
+        <v>47</v>
       </c>
       <c r="E50" t="s">
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="G50" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="H50" t="s">
+        <v>65</v>
       </c>
       <c r="K50" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L50" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="M50" t="s">
+        <v>66</v>
       </c>
       <c r="P50" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="R50" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B51" t="s">
         <v>69</v>
       </c>
       <c r="C51" t="s">
-        <v>23</v>
+        <v>63</v>
+      </c>
+      <c r="D51" t="s">
+        <v>47</v>
       </c>
       <c r="E51" t="s">
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="G51" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="H51" t="s">
+        <v>65</v>
       </c>
       <c r="K51" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L51" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="M51" t="s">
+        <v>66</v>
       </c>
       <c r="P51" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="R51" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B52" t="s">
         <v>69</v>
       </c>
       <c r="C52" t="s">
-        <v>24</v>
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>34</v>
       </c>
       <c r="E52" t="s">
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="G52" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="H52" t="s">
+        <v>65</v>
       </c>
       <c r="K52" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L52" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="M52" t="s">
+        <v>66</v>
       </c>
       <c r="P52" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="R52" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
@@ -2270,16 +2306,16 @@
         <v>69</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D53" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E53" t="s">
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G53" t="s">
         <v>18</v>
@@ -2305,147 +2341,24 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B54" t="s">
         <v>69</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
-      </c>
-      <c r="D54" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E54" t="s">
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
-      </c>
-      <c r="G54" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="K54" t="s">
-        <v>28</v>
-      </c>
-      <c r="L54" t="s">
-        <v>29</v>
-      </c>
-      <c r="M54" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="P54" t="s">
-        <v>30</v>
-      </c>
-      <c r="R54" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" t="s">
-        <v>34</v>
-      </c>
-      <c r="E55" t="s">
-        <v>44</v>
-      </c>
-      <c r="F55" t="s">
-        <v>64</v>
-      </c>
-      <c r="G55" t="s">
-        <v>18</v>
-      </c>
-      <c r="H55" t="s">
-        <v>65</v>
-      </c>
-      <c r="K55" t="s">
-        <v>28</v>
-      </c>
-      <c r="L55" t="s">
-        <v>29</v>
-      </c>
-      <c r="M55" t="s">
-        <v>66</v>
-      </c>
-      <c r="P55" t="s">
-        <v>30</v>
-      </c>
-      <c r="R55" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56" t="s">
-        <v>34</v>
-      </c>
-      <c r="E56" t="s">
-        <v>44</v>
-      </c>
-      <c r="F56" t="s">
-        <v>67</v>
-      </c>
-      <c r="G56" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" t="s">
-        <v>65</v>
-      </c>
-      <c r="K56" t="s">
-        <v>28</v>
-      </c>
-      <c r="L56" t="s">
-        <v>29</v>
-      </c>
-      <c r="M56" t="s">
-        <v>66</v>
-      </c>
-      <c r="P56" t="s">
-        <v>30</v>
-      </c>
-      <c r="R56" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" t="s">
-        <v>40</v>
-      </c>
-      <c r="E57" t="s">
-        <v>44</v>
-      </c>
-      <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="K57" t="s">
-        <v>41</v>
-      </c>
-      <c r="P57" t="s">
         <v>46</v>
       </c>
     </row>

--- a/p_parameters/additional_concepts.xlsx
+++ b/p_parameters/additional_concepts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D893A4-17A5-3A45-BF60-4C45B5A1D678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC534A3-6524-DF4B-A4C1-8078BE6DB0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0939CFEC-D1BA-1D42-BACE-55536FF5F5D7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{0939CFEC-D1BA-1D42-BACE-55536FF5F5D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="75">
   <si>
     <t>table</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>Migraine_cat_diagnoses</t>
+  </si>
+  <si>
+    <t>Migraine_medicines</t>
   </si>
 </sst>
 </file>
@@ -280,12 +283,54 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -301,9 +346,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FD393A-5674-3749-B00C-5DA732AD43E3}">
-  <dimension ref="A1:R54"/>
+  <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -690,1675 +742,1721 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>5</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" t="s">
-        <v>30</v>
-      </c>
-      <c r="R5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="L5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" t="s">
-        <v>30</v>
-      </c>
-      <c r="R6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="L6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>2</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>3</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="L7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L8" t="s">
-        <v>29</v>
-      </c>
-      <c r="P8" t="s">
-        <v>30</v>
-      </c>
-      <c r="R8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="L8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P9" t="s">
-        <v>30</v>
-      </c>
-      <c r="R9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="L9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="K10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="P10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="P10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="E11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="K11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="P11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="P11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="K12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="P12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="P12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="E14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="E15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="E16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="17" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>4</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L17" t="s">
-        <v>29</v>
-      </c>
-      <c r="P17" t="s">
-        <v>30</v>
-      </c>
-      <c r="R17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="L17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>1</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L18" t="s">
-        <v>29</v>
-      </c>
-      <c r="P18" t="s">
-        <v>30</v>
-      </c>
-      <c r="R18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="L18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>1</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="2">
         <v>2</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <v>3</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L19" t="s">
-        <v>29</v>
-      </c>
-      <c r="P19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="L19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <v>1</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L20" t="s">
-        <v>29</v>
-      </c>
-      <c r="P20" t="s">
-        <v>30</v>
-      </c>
-      <c r="R20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="L20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <v>1</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L21" t="s">
-        <v>29</v>
-      </c>
-      <c r="P21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="L21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="E22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P22" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E23" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="E24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P24" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="25" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G25" s="4">
         <v>1</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" t="s">
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L24" t="s">
-        <v>29</v>
-      </c>
-      <c r="P24" t="s">
-        <v>30</v>
-      </c>
-      <c r="R24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="L25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G26" s="4">
         <v>1</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" t="s">
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L25" t="s">
-        <v>29</v>
-      </c>
-      <c r="P25" t="s">
-        <v>30</v>
-      </c>
-      <c r="R25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="L26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G27" s="4">
         <v>1</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" t="s">
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L26" t="s">
-        <v>29</v>
-      </c>
-      <c r="P26" t="s">
-        <v>30</v>
-      </c>
-      <c r="R26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="L27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G28" s="4">
         <v>1</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" t="s">
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L27" t="s">
-        <v>29</v>
-      </c>
-      <c r="P27" t="s">
-        <v>30</v>
-      </c>
-      <c r="R27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="L28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F29" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G29" s="4">
         <v>1</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" t="s">
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L28" t="s">
-        <v>29</v>
-      </c>
-      <c r="P28" t="s">
-        <v>30</v>
-      </c>
-      <c r="R28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="L29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="E30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P30" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="31" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="E31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K31" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L31" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P31" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="32" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E31" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="E32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L32" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P32" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="33" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="E33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L33" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P33" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="34" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E33" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" t="s">
+      <c r="E34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P34" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="35" spans="1:18" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E34" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="E35" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K35" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L35" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="P34" t="s">
+      <c r="P35" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="36" spans="1:18" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="E36" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K36" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L36" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="P35" t="s">
+      <c r="P36" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="37" spans="1:18" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E36" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="E37" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K37" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L37" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="P36" t="s">
+      <c r="P37" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="38" spans="1:18" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E37" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K37" t="s">
+      <c r="E38" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P38" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="39" spans="1:18" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E38" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="E39" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K39" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L39" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P38" t="s">
+      <c r="P39" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="40" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E39" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="E40" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K40" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L40" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P39" t="s">
+      <c r="P40" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="41" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E40" t="s">
-        <v>44</v>
-      </c>
-      <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="E41" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K41" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L41" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P40" t="s">
+      <c r="P41" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="42" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E41" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="E42" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K41" t="s">
-        <v>29</v>
-      </c>
-      <c r="L41" t="s">
+      <c r="K42" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P41" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="P42" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E42" t="s">
-        <v>44</v>
-      </c>
-      <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="E43" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K42" t="s">
-        <v>29</v>
-      </c>
-      <c r="L42" t="s">
+      <c r="K43" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="P43" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E43" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="E44" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K43" t="s">
-        <v>29</v>
-      </c>
-      <c r="L43" t="s">
+      <c r="K44" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="P44" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E45" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F45" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G44">
+      <c r="G45" s="7">
         <v>1</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K45" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L44" t="s">
-        <v>29</v>
-      </c>
-      <c r="P44" t="s">
-        <v>30</v>
-      </c>
-      <c r="R44" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="L45" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R45" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E46" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F46" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G45">
+      <c r="G46" s="7">
         <v>1</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K46" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L45" t="s">
-        <v>29</v>
-      </c>
-      <c r="P45" t="s">
-        <v>30</v>
-      </c>
-      <c r="R45" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="L46" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R46" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E46" t="s">
-        <v>44</v>
-      </c>
-      <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="K46" t="s">
+      <c r="E48" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="P46" t="s">
+      <c r="P48" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="49" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B49" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C49" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E47" t="s">
-        <v>44</v>
-      </c>
-      <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="E49" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K49" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L49" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="P47" t="s">
+      <c r="P49" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="50" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B50" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C50" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E48" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="E50" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K50" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L50" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="P48" t="s">
+      <c r="P50" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="51" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B51" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C51" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E49" t="s">
-        <v>44</v>
-      </c>
-      <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="E51" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K51" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L51" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="P49" t="s">
+      <c r="P51" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="52" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C52" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D52" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E50" t="s">
-        <v>44</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="E52" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G50" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="G52" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K52" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L50" t="s">
-        <v>29</v>
-      </c>
-      <c r="M50" t="s">
+      <c r="L52" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M52" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="P50" t="s">
-        <v>30</v>
-      </c>
-      <c r="R50" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="P52" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R52" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C53" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D53" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E51" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="E53" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="G53" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K53" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L51" t="s">
-        <v>29</v>
-      </c>
-      <c r="M51" t="s">
+      <c r="L53" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M53" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="P51" t="s">
-        <v>30</v>
-      </c>
-      <c r="R51" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="P53" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R53" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C54" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D54" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E52" t="s">
-        <v>44</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="E54" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G52" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="G54" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K54" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L52" t="s">
-        <v>29</v>
-      </c>
-      <c r="M52" t="s">
+      <c r="L54" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M54" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="P52" t="s">
-        <v>30</v>
-      </c>
-      <c r="R52" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="P54" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R54" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C55" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D55" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E53" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="E55" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G53" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="G55" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K55" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L53" t="s">
-        <v>29</v>
-      </c>
-      <c r="M53" t="s">
+      <c r="L55" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M55" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="P53" t="s">
-        <v>30</v>
-      </c>
-      <c r="R53" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="P55" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R55" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B56" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C56" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E54" t="s">
-        <v>44</v>
-      </c>
-      <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="K54" t="s">
+      <c r="E56" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="P54" t="s">
+      <c r="P56" s="8" t="s">
         <v>46</v>
       </c>
     </row>

--- a/p_parameters/additional_concepts.xlsx
+++ b/p_parameters/additional_concepts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC534A3-6524-DF4B-A4C1-8078BE6DB0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3375E823-445D-9F49-9224-2D3AE9AAC322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{0939CFEC-D1BA-1D42-BACE-55536FF5F5D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="75">
   <si>
     <t>table</t>
   </si>
@@ -671,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FD393A-5674-3749-B00C-5DA732AD43E3}">
-  <dimension ref="A1:R56"/>
+  <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1434,147 +1434,120 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="4">
-        <v>1</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="4">
-        <v>1</v>
-      </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>29</v>
+    <row r="24" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="4">
-        <v>1</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="K27" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1585,16 +1558,16 @@
         <v>61</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G28" s="4">
         <v>1</v>
@@ -1623,16 +1596,16 @@
         <v>61</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G29" s="4">
         <v>1</v>
@@ -1655,343 +1628,370 @@
     </row>
     <row r="30" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" s="3" t="s">
+      <c r="E33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P30" s="3" t="s">
+      <c r="P33" s="3" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P31" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P32" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P33" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K34" s="5" t="s">
+      <c r="E37" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="P34" s="5" t="s">
+      <c r="P37" s="5" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="P35" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="P36" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="P37" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:18" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P40" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K38" s="6" t="s">
+      <c r="E41" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="P38" s="6" t="s">
+      <c r="P41" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
+    <row r="42" spans="1:18" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>44</v>
@@ -2003,24 +2003,24 @@
         <v>19</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>44</v>
@@ -2032,24 +2032,24 @@
         <v>19</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>44</v>
@@ -2061,13 +2061,13 @@
         <v>19</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2078,31 +2078,25 @@
         <v>70</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" s="7">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="R45" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2113,42 +2107,36 @@
         <v>70</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G46" s="7">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="R46" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>44</v>
@@ -2156,244 +2144,220 @@
       <c r="F47" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="G47" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="K47" s="7" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C48" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48" s="7">
+        <v>1</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R48" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G49" s="7">
+        <v>1</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R49" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K48" s="7" t="s">
+      <c r="E51" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="P48" s="7" t="s">
+      <c r="P51" s="7" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K49" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="P49" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K50" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L50" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="P50" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K51" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L51" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="P51" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M52" s="8" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="P52" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="R52" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M53" s="8" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="P53" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="R53" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M54" s="8" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="P54" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="R54" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2404,16 +2368,16 @@
         <v>69</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>18</v>
@@ -2439,24 +2403,147 @@
     </row>
     <row r="56" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C56" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L56" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P56" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R56" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P57" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R57" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L58" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M58" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P58" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R58" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E56" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K56" s="8" t="s">
+      <c r="E59" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="P56" s="8" t="s">
+      <c r="P59" s="8" t="s">
         <v>46</v>
       </c>
     </row>

--- a/p_parameters/additional_concepts.xlsx
+++ b/p_parameters/additional_concepts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3375E823-445D-9F49-9224-2D3AE9AAC322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B4182A-C47A-5F46-9118-388C733D8813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{0939CFEC-D1BA-1D42-BACE-55536FF5F5D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="74">
   <si>
     <t>table</t>
   </si>
@@ -255,9 +255,6 @@
   </si>
   <si>
     <t>PE_cat_diagnoses</t>
-  </si>
-  <si>
-    <t>Migraine_cat_diagnoses</t>
   </si>
   <si>
     <t>Migraine_medicines</t>
@@ -671,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FD393A-5674-3749-B00C-5DA732AD43E3}">
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1419,7 +1416,7 @@
         <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>44</v>
@@ -1434,120 +1431,147 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="7" t="s">
+    <row r="24" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>30</v>
+      <c r="K24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
       <c r="K27" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1558,16 +1582,16 @@
         <v>61</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G28" s="4">
         <v>1</v>
@@ -1596,16 +1620,16 @@
         <v>61</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G29" s="4">
         <v>1</v>
@@ -1628,370 +1652,343 @@
     </row>
     <row r="30" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30" s="4">
-        <v>1</v>
-      </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R30" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G31" s="4">
-        <v>1</v>
-      </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R31" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G32" s="4">
-        <v>1</v>
-      </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P33" s="3" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="5" t="s">
+      <c r="E35" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K34" s="5" t="s">
+      <c r="K35" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L34" s="5" t="s">
+      <c r="L35" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="P34" s="5" t="s">
+      <c r="P35" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+    <row r="36" spans="1:18" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="5" t="s">
+      <c r="B36" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="5" t="s">
+      <c r="E36" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="K36" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="5" t="s">
+      <c r="L36" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="P35" s="5" t="s">
+      <c r="P36" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+    <row r="37" spans="1:18" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="5" t="s">
+      <c r="B37" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="5" t="s">
+      <c r="E37" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K36" s="5" t="s">
+      <c r="K37" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L36" s="5" t="s">
+      <c r="L37" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="P36" s="5" t="s">
+      <c r="P37" s="6" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="P37" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:18" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C38" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="6" t="s">
+      <c r="E39" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K38" s="6" t="s">
+      <c r="K39" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L38" s="6" t="s">
+      <c r="L39" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P38" s="6" t="s">
+      <c r="P39" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
+    <row r="40" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="6" t="s">
+      <c r="B40" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="6" t="s">
+      <c r="E40" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K39" s="6" t="s">
+      <c r="K40" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L39" s="6" t="s">
+      <c r="L40" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P39" s="6" t="s">
+      <c r="P40" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
+    <row r="41" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="6" t="s">
+      <c r="B41" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="6" t="s">
+      <c r="E41" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K40" s="6" t="s">
+      <c r="K41" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L40" s="6" t="s">
+      <c r="L41" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P40" s="6" t="s">
+      <c r="P41" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="P41" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>44</v>
@@ -2003,24 +2000,24 @@
         <v>19</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>44</v>
@@ -2032,42 +2029,48 @@
         <v>19</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>24</v>
+        <v>48</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>19</v>
+        <v>59</v>
+      </c>
+      <c r="G44" s="7">
+        <v>1</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="R44" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2078,36 +2081,42 @@
         <v>70</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>71</v>
+        <v>31</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>19</v>
+        <v>60</v>
+      </c>
+      <c r="G45" s="7">
+        <v>1</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>30</v>
+      </c>
+      <c r="R45" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>44</v>
@@ -2115,28 +2124,22 @@
       <c r="F46" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G46" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="K46" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>44</v>
@@ -2144,406 +2147,284 @@
       <c r="F47" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="K47" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K47" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L47" s="7" t="s">
+      <c r="K48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P48" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P49" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P50" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M51" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="P47" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G48" s="7">
-        <v>1</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P48" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R48" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G49" s="7">
-        <v>1</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R49" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P51" s="7" t="s">
-        <v>46</v>
+      <c r="P51" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R51" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>17</v>
+        <v>63</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="P52" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="R52" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>23</v>
+        <v>68</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="P53" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="R53" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>24</v>
+        <v>68</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="P54" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="R54" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L55" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M55" s="8" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="P55" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="R55" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K56" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L56" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M56" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="P56" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="R56" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K57" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L57" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M57" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="P57" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="R57" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K58" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L58" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M58" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="P58" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="R58" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K59" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="P59" s="8" t="s">
         <v>46</v>
       </c>
     </row>

--- a/p_parameters/additional_concepts.xlsx
+++ b/p_parameters/additional_concepts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B4182A-C47A-5F46-9118-388C733D8813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15BFE06-512D-0C42-BC85-912A9C06CA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{0939CFEC-D1BA-1D42-BACE-55536FF5F5D7}"/>
   </bookViews>
@@ -670,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FD393A-5674-3749-B00C-5DA732AD43E3}">
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/p_parameters/additional_concepts.xlsx
+++ b/p_parameters/additional_concepts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15BFE06-512D-0C42-BC85-912A9C06CA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54454211-E73F-284C-A997-2B4E4F13EA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{0939CFEC-D1BA-1D42-BACE-55536FF5F5D7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{0939CFEC-D1BA-1D42-BACE-55536FF5F5D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="76">
   <si>
     <t>table</t>
   </si>
@@ -258,6 +258,12 @@
   </si>
   <si>
     <t>Migraine_medicines</t>
+  </si>
+  <si>
+    <t>Migraine_cat_diagnoses</t>
+  </si>
+  <si>
+    <t>MIgraine_medicines</t>
   </si>
 </sst>
 </file>
@@ -280,7 +286,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,6 +335,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -343,7 +355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -353,6 +365,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FD393A-5674-3749-B00C-5DA732AD43E3}">
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1007,61 +1020,61 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="C10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="1" t="s">
+      <c r="K10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="P10" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="C11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="1" t="s">
+      <c r="K11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="P11" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1072,8 +1085,8 @@
       <c r="B12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
+      <c r="C12" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>44</v>
@@ -1117,33 +1130,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>22</v>
+    <row r="14" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1154,7 +1161,7 @@
         <v>49</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>44</v>
@@ -1183,7 +1190,7 @@
         <v>49</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -1206,37 +1213,31 @@
     </row>
     <row r="17" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="2">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1247,19 +1248,19 @@
         <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="G18" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>28</v>
@@ -1285,23 +1286,17 @@
         <v>31</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
       </c>
-      <c r="H19" s="2">
-        <v>2</v>
-      </c>
-      <c r="I19" s="2">
-        <v>3</v>
-      </c>
       <c r="K19" s="2" t="s">
         <v>28</v>
       </c>
@@ -1332,11 +1327,17 @@
         <v>26</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
       </c>
+      <c r="H20" s="2">
+        <v>2</v>
+      </c>
+      <c r="I20" s="2">
+        <v>3</v>
+      </c>
       <c r="K20" s="2" t="s">
         <v>28</v>
       </c>
@@ -1361,13 +1362,13 @@
         <v>31</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -1387,25 +1388,37 @@
     </row>
     <row r="22" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1416,7 +1429,7 @@
         <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>44</v>
@@ -1431,71 +1444,56 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>22</v>
+    <row r="24" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="4">
-        <v>1</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="K25" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1515,7 +1513,7 @@
         <v>26</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G26" s="4">
         <v>1</v>
@@ -1544,16 +1542,16 @@
         <v>61</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" s="4">
         <v>1</v>
@@ -1591,7 +1589,7 @@
         <v>26</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G28" s="4">
         <v>1</v>
@@ -1629,7 +1627,7 @@
         <v>26</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G29" s="4">
         <v>1</v>
@@ -1652,54 +1650,63 @@
     </row>
     <row r="30" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" s="3" t="s">
+      <c r="E31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P30" s="3" t="s">
+      <c r="P31" s="3" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P31" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1710,7 +1717,7 @@
         <v>58</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>44</v>
@@ -1739,7 +1746,7 @@
         <v>58</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>44</v>
@@ -1762,54 +1769,54 @@
     </row>
     <row r="34" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K34" s="5" t="s">
+      <c r="E35" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="P34" s="5" t="s">
+      <c r="P35" s="5" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="P35" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:18" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -1820,7 +1827,7 @@
         <v>62</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>44</v>
@@ -1849,7 +1856,7 @@
         <v>62</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>44</v>
@@ -1872,57 +1879,57 @@
     </row>
     <row r="38" spans="1:18" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C38" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K38" s="6" t="s">
+      <c r="E39" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="P38" s="6" t="s">
+      <c r="P39" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>16</v>
       </c>
@@ -1930,7 +1937,7 @@
         <v>70</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>44</v>
@@ -1959,7 +1966,7 @@
         <v>70</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>44</v>
@@ -1982,13 +1989,13 @@
     </row>
     <row r="42" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>44</v>
@@ -2000,13 +2007,13 @@
         <v>19</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2017,7 +2024,7 @@
         <v>70</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>44</v>
@@ -2046,31 +2053,25 @@
         <v>70</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G44" s="7">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="R44" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2081,135 +2082,141 @@
         <v>70</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="R45" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>73</v>
+        <v>48</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>18</v>
+        <v>59</v>
+      </c>
+      <c r="G46" s="7">
+        <v>1</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>41</v>
+        <v>28</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>46</v>
+        <v>30</v>
+      </c>
+      <c r="R46" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C47" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G47" s="7">
+        <v>1</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R47" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K47" s="7" t="s">
+      <c r="E49" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="P49" s="7" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K48" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L48" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="P48" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K49" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="P49" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2220,7 +2227,7 @@
         <v>69</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>44</v>
@@ -2243,84 +2250,60 @@
     </row>
     <row r="51" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M51" s="8" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="P51" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="R51" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M52" s="8" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="P52" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="R52" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2331,10 +2314,10 @@
         <v>69</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>44</v>
@@ -2372,10 +2355,10 @@
         <v>69</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>44</v>
@@ -2407,24 +2390,106 @@
     </row>
     <row r="55" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C55" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P55" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R55" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L56" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P56" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R56" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E55" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K55" s="8" t="s">
+      <c r="E57" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="P55" s="8" t="s">
+      <c r="P57" s="8" t="s">
         <v>46</v>
       </c>
     </row>

--- a/p_parameters/additional_concepts.xlsx
+++ b/p_parameters/additional_concepts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54454211-E73F-284C-A997-2B4E4F13EA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1A28B7-9FC2-D64E-84B2-6FB7EF657525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{0939CFEC-D1BA-1D42-BACE-55536FF5F5D7}"/>
+    <workbookView xWindow="600" yWindow="1600" windowWidth="28800" windowHeight="16380" xr2:uid="{0939CFEC-D1BA-1D42-BACE-55536FF5F5D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="76">
   <si>
     <t>table</t>
   </si>
@@ -681,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FD393A-5674-3749-B00C-5DA732AD43E3}">
-  <dimension ref="A1:R57"/>
+  <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -694,6 +694,7 @@
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.83203125" customWidth="1"/>
     <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
@@ -1467,721 +1468,697 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="4">
-        <v>1</v>
-      </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="4">
-        <v>1</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>29</v>
+    <row r="25" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="4">
-        <v>1</v>
-      </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="K28" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R28" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29" s="4">
-        <v>1</v>
-      </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="K29" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G30" s="4">
-        <v>1</v>
-      </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="K30" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R30" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K31" s="3" t="s">
+      <c r="E37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P31" s="3" t="s">
+      <c r="P37" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+    <row r="38" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K32" s="5" t="s">
+      <c r="E38" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="5" t="s">
+      <c r="L38" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="P32" s="5" t="s">
+      <c r="P38" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+    <row r="39" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B39" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K33" s="5" t="s">
+      <c r="E39" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="5" t="s">
+      <c r="L39" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="P33" s="5" t="s">
+      <c r="P39" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+    <row r="40" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B40" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K34" s="5" t="s">
+      <c r="E40" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L34" s="5" t="s">
+      <c r="L40" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="P34" s="5" t="s">
+      <c r="P40" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+    <row r="41" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B41" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K35" s="5" t="s">
+      <c r="E41" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="P35" s="5" t="s">
+      <c r="P41" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+    <row r="42" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B43" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K36" s="6" t="s">
+      <c r="E43" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L36" s="6" t="s">
+      <c r="L43" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="P36" s="6" t="s">
+      <c r="P43" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:18" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+    <row r="44" spans="1:18" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B44" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K37" s="6" t="s">
+      <c r="E44" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L37" s="6" t="s">
+      <c r="L44" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="P37" s="6" t="s">
+      <c r="P44" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:18" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
+    <row r="45" spans="1:18" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B45" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C45" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K38" s="6" t="s">
+      <c r="E45" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L38" s="6" t="s">
+      <c r="L45" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="P38" s="6" t="s">
+      <c r="P45" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
+    <row r="46" spans="1:18" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B46" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K39" s="6" t="s">
+      <c r="E46" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="P39" s="6" t="s">
+      <c r="P46" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
+    <row r="47" spans="1:18" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G46" s="7">
-        <v>1</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R46" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G47" s="7">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R47" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>44</v>
@@ -2189,307 +2166,545 @@
       <c r="F48" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="G48" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="K48" s="7" t="s">
-        <v>41</v>
+        <v>20</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C49" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G53" s="7">
+        <v>1</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R53" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G54" s="7">
+        <v>1</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R54" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K49" s="7" t="s">
+      <c r="E56" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="P49" s="7" t="s">
+      <c r="P56" s="7" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K50" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L50" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="P50" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K51" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L51" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="P51" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K52" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L52" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="P52" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K53" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L53" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M53" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="P53" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="R53" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K54" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L54" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M54" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="P54" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="R54" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K55" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L55" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M55" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="P55" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="R55" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K56" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L56" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M56" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="P56" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="R56" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C57" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P57" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P58" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P59" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K60" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L60" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M60" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P60" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R60" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P61" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R61" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K62" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M62" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P62" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R62" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M63" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P63" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R63" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E57" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K57" s="8" t="s">
+      <c r="E64" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K64" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="P57" s="8" t="s">
+      <c r="P64" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P65" s="8" t="s">
         <v>46</v>
       </c>
     </row>

--- a/p_parameters/additional_concepts.xlsx
+++ b/p_parameters/additional_concepts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1A28B7-9FC2-D64E-84B2-6FB7EF657525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8A4BD4-E97F-C340-A920-F2D66564A386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="1600" windowWidth="28800" windowHeight="16380" xr2:uid="{0939CFEC-D1BA-1D42-BACE-55536FF5F5D7}"/>
+    <workbookView xWindow="3180" yWindow="4600" windowWidth="28800" windowHeight="16380" xr2:uid="{0939CFEC-D1BA-1D42-BACE-55536FF5F5D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="76">
   <si>
     <t>table</t>
   </si>
@@ -681,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FD393A-5674-3749-B00C-5DA732AD43E3}">
-  <dimension ref="A1:R65"/>
+  <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2506,19 +2506,13 @@
         <v>69</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E60" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>18</v>
+      <c r="E60" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>65</v>
@@ -2547,37 +2541,13 @@
         <v>69</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K61" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L61" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M61" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="P61" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="R61" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2588,10 +2558,10 @@
         <v>69</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>44</v>
@@ -2629,10 +2599,10 @@
         <v>69</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>44</v>
@@ -2664,47 +2634,129 @@
     </row>
     <row r="64" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>40</v>
+        <v>68</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>18</v>
+        <v>64</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>41</v>
+        <v>28</v>
+      </c>
+      <c r="L64" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M64" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="P64" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="R64" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C65" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M65" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P65" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R65" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P66" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E65" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K65" s="8" t="s">
+      <c r="E67" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="P65" s="8" t="s">
+      <c r="P67" s="8" t="s">
         <v>46</v>
       </c>
     </row>

--- a/p_parameters/additional_concepts.xlsx
+++ b/p_parameters/additional_concepts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/candaurn/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2B2B4D-DEA6-D149-99E7-D913AAEF0757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034A92BE-0616-5045-B4A6-57AED3968292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0939CFEC-D1BA-1D42-BACE-55536FF5F5D7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16600" xr2:uid="{0939CFEC-D1BA-1D42-BACE-55536FF5F5D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="71">
   <si>
     <t>table</t>
   </si>
@@ -237,6 +237,18 @@
   </si>
   <si>
     <t>NIHW</t>
+  </si>
+  <si>
+    <t>Sumatriptan_inj</t>
+  </si>
+  <si>
+    <t>medical_product_id</t>
+  </si>
+  <si>
+    <t>093252</t>
+  </si>
+  <si>
+    <t>093260</t>
   </si>
 </sst>
 </file>
@@ -322,7 +334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -332,6 +344,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FD393A-5674-3749-B00C-5DA732AD43E3}">
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:R62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -660,6 +681,7 @@
     <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="9"/>
     <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.83203125" bestFit="1" customWidth="1"/>
@@ -685,7 +707,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="9" t="s">
         <v>43</v>
       </c>
       <c r="H1" t="s">
@@ -738,7 +760,7 @@
       <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="10" t="s">
         <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -767,7 +789,7 @@
       <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="10" t="s">
         <v>19</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -796,7 +818,7 @@
       <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -828,7 +850,7 @@
       <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="10">
         <v>4</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -863,7 +885,7 @@
       <c r="F6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="10">
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -898,7 +920,7 @@
       <c r="F7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="10">
         <v>1</v>
       </c>
       <c r="H7" s="1">
@@ -945,7 +967,7 @@
       <c r="F8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="10">
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -980,7 +1002,7 @@
       <c r="F9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="10">
         <v>1</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -1012,6 +1034,7 @@
       <c r="F10" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="G10" s="10"/>
       <c r="K10" s="1" t="s">
         <v>40</v>
       </c>
@@ -1035,6 +1058,7 @@
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="G11" s="10"/>
       <c r="K11" s="1" t="s">
         <v>40</v>
       </c>
@@ -1058,7 +1082,7 @@
       <c r="F12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="10" t="s">
         <v>19</v>
       </c>
       <c r="K12" s="1" t="s">
@@ -1087,7 +1111,7 @@
       <c r="F13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="10" t="s">
         <v>19</v>
       </c>
       <c r="K13" s="1" t="s">
@@ -1116,7 +1140,7 @@
       <c r="F14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="10" t="s">
         <v>19</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -1129,848 +1153,821 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="2" t="s">
+    <row r="15" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="10">
+        <v>85466</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>29</v>
+      <c r="F16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="10">
+        <v>93252</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="10">
+        <v>93260</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="10">
+        <v>172675</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="10">
+        <v>524926</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="K20" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="K21" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="K22" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="12">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
       <c r="K23" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>44</v>
+        <v>30</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="12">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="12">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="12">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="12">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="K28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="E29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="K29" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="P24" s="2" t="s">
+      <c r="P29" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+    <row r="30" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="11">
+        <v>3378288</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="11">
+        <v>3378288</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="4" t="s">
+      <c r="E32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="L32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P25" s="4" t="s">
+      <c r="P32" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+    <row r="33" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="4" t="s">
+      <c r="E33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="L33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P26" s="4" t="s">
+      <c r="P33" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+    <row r="34" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="4" t="s">
+      <c r="E34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K34" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="L34" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P27" s="4" t="s">
+      <c r="P34" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+    <row r="35" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" s="4" t="s">
+      <c r="E35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="K35" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P28" s="4" t="s">
+      <c r="P35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+    <row r="36" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" s="4" t="s">
+      <c r="E36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="K36" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P29" s="4" t="s">
+      <c r="P36" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+    <row r="37" spans="1:18" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B37" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="5" t="s">
+      <c r="E37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="K37" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="5" t="s">
+      <c r="L37" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="P30" s="5" t="s">
+      <c r="P37" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+    <row r="38" spans="1:18" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="5" t="s">
+      <c r="E38" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K31" s="5" t="s">
+      <c r="K38" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="5" t="s">
+      <c r="L38" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="P31" s="5" t="s">
+      <c r="P38" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+    <row r="39" spans="1:18" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B39" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="5" t="s">
+      <c r="E39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="K39" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="5" t="s">
+      <c r="L39" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="P32" s="5" t="s">
+      <c r="P39" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+    <row r="40" spans="1:18" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B40" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" s="5" t="s">
+      <c r="E40" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="K40" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="P33" s="5" t="s">
+      <c r="P40" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+    <row r="41" spans="1:18" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B41" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K34" s="5" t="s">
+      <c r="E41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="K41" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="P34" s="5" t="s">
+      <c r="P41" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
+    <row r="42" spans="1:18" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="P35" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="P36" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="P37" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="P38" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="P39" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="P40" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G41" s="6">
-        <v>1</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P41" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="R41" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G42" s="6">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="P42" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="R42" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>42</v>
@@ -1978,288 +1975,561 @@
       <c r="F43" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="G43" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="K43" s="6" t="s">
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C44" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P44" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P46" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P47" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48" s="15">
+        <v>1</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P48" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R48" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G49" s="15">
+        <v>1</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P49" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R49" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="15"/>
+      <c r="K50" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P50" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K44" s="6" t="s">
+      <c r="E51" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="15"/>
+      <c r="K51" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="P44" s="6" t="s">
+      <c r="P51" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
+    <row r="52" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="P52" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="P53" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B54" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="7" t="s">
+      <c r="E54" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="K54" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L45" s="7" t="s">
+      <c r="L54" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P45" s="7" t="s">
+      <c r="P54" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
+    <row r="55" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B55" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" s="7" t="s">
+      <c r="E55" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="K55" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L46" s="7" t="s">
+      <c r="L55" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="P55" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
+    <row r="56" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B56" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C56" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" s="7" t="s">
+      <c r="E56" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="K56" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L47" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="P56" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
+    <row r="57" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B57" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C57" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D57" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E57" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K48" s="8" t="s">
+      <c r="G57" s="17"/>
+      <c r="K57" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L48" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="P48" s="8" t="s">
+      <c r="L57" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P57" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="R48" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+      <c r="R57" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B58" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D58" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E58" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K49" s="8" t="s">
+      <c r="G58" s="17"/>
+      <c r="K58" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L49" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="P49" s="8" t="s">
+      <c r="L58" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P58" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="R49" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
+      <c r="R58" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B59" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C59" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E50" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" s="7" t="s">
+      <c r="E59" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K50" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L50" s="7" t="s">
+      <c r="K59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L59" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P50" s="7" t="s">
+      <c r="P59" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R50" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
+      <c r="R59" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B60" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C60" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E51" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="7" t="s">
+      <c r="E60" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K51" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L51" s="7" t="s">
+      <c r="K60" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L60" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P51" s="7" t="s">
+      <c r="P60" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R51" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
+      <c r="R60" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B61" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C61" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K52" s="7" t="s">
+      <c r="E61" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="16"/>
+      <c r="K61" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P52" s="7" t="s">
+      <c r="P61" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
+    <row r="62" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B62" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E53" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K53" s="7" t="s">
+      <c r="E62" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="16"/>
+      <c r="K62" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P53" s="7" t="s">
+      <c r="P62" s="7" t="s">
         <v>44</v>
       </c>
     </row>

--- a/p_parameters/additional_concepts.xlsx
+++ b/p_parameters/additional_concepts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_parameters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/candaurn/Desktop/ConcePTION-DP4_Migraine/p_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5379AB83-BC57-484C-8C2B-32AF2BDF9A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5FFB13-5E45-2F43-82EB-94313969EE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8180" yWindow="540" windowWidth="14280" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="89">
   <si>
     <t>table</t>
   </si>
@@ -252,9 +252,6 @@
   </si>
   <si>
     <t>medicinal_product_id</t>
-  </si>
-  <si>
-    <t>f</t>
   </si>
   <si>
     <t>dl53</t>
@@ -391,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -401,8 +398,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -412,10 +407,8 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R78"/>
+  <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -743,7 +736,7 @@
     <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="25.1640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" style="17" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -764,7 +757,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -820,7 +813,7 @@
       <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -864,7 +857,7 @@
       <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -908,7 +901,7 @@
       <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -952,7 +945,7 @@
       <c r="E5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="2">
@@ -994,7 +987,7 @@
       <c r="E6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>40</v>
       </c>
       <c r="G6" s="2">
@@ -1038,7 +1031,7 @@
       <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="2">
@@ -1060,10 +1053,10 @@
       <c r="M7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="9"/>
+      <c r="O7" s="18"/>
       <c r="P7" s="2" t="s">
         <v>37</v>
       </c>
@@ -1090,7 +1083,7 @@
       <c r="E8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="2">
@@ -1134,7 +1127,7 @@
       <c r="E9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>45</v>
       </c>
       <c r="G9" s="2">
@@ -1178,7 +1171,7 @@
       <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="2"/>
@@ -1218,7 +1211,7 @@
       <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="2"/>
@@ -1249,14 +1242,14 @@
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1300,7 +1293,7 @@
       <c r="E13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="10">
         <v>85466</v>
       </c>
       <c r="G13" s="2"/>
@@ -1334,7 +1327,7 @@
       <c r="E14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="10">
         <v>93252</v>
       </c>
       <c r="G14" s="2"/>
@@ -1368,7 +1361,7 @@
       <c r="E15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="10">
         <v>93260</v>
       </c>
       <c r="G15" s="2"/>
@@ -1402,7 +1395,7 @@
       <c r="E16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="10">
         <v>172675</v>
       </c>
       <c r="G16" s="2"/>
@@ -1436,7 +1429,7 @@
       <c r="E17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="10">
         <v>524926</v>
       </c>
       <c r="G17" s="2"/>
@@ -1472,7 +1465,7 @@
       <c r="E18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="11" t="s">
         <v>23</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -1516,7 +1509,7 @@
       <c r="E19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="11" t="s">
         <v>23</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -1560,7 +1553,7 @@
       <c r="E20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="11" t="s">
         <v>23</v>
       </c>
       <c r="G20" s="3" t="s">
@@ -1604,7 +1597,7 @@
       <c r="E21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="12" t="s">
         <v>56</v>
       </c>
       <c r="G21" s="4">
@@ -1648,7 +1641,7 @@
       <c r="E22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="12" t="s">
         <v>57</v>
       </c>
       <c r="G22" s="4">
@@ -1692,7 +1685,7 @@
       <c r="E23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="12" t="s">
         <v>58</v>
       </c>
       <c r="G23" s="4">
@@ -1736,7 +1729,7 @@
       <c r="E24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="12" t="s">
         <v>59</v>
       </c>
       <c r="G24" s="4">
@@ -1780,7 +1773,7 @@
       <c r="E25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="12" t="s">
         <v>60</v>
       </c>
       <c r="G25" s="4">
@@ -1824,7 +1817,7 @@
       <c r="E26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="11" t="s">
         <v>23</v>
       </c>
       <c r="G26" s="3"/>
@@ -1864,7 +1857,7 @@
       <c r="E27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="11" t="s">
         <v>23</v>
       </c>
       <c r="G27" s="3"/>
@@ -1902,7 +1895,7 @@
       <c r="E28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="11">
         <v>3378259</v>
       </c>
       <c r="G28" s="3"/>
@@ -1936,7 +1929,7 @@
       <c r="E29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="11">
         <v>3378288</v>
       </c>
       <c r="G29" s="3"/>
@@ -1972,7 +1965,7 @@
       <c r="E30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="13" t="s">
         <v>23</v>
       </c>
       <c r="G30" s="5" t="s">
@@ -2016,7 +2009,7 @@
       <c r="E31" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="13" t="s">
         <v>23</v>
       </c>
       <c r="G31" s="5" t="s">
@@ -2060,7 +2053,7 @@
       <c r="E32" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="13" t="s">
         <v>23</v>
       </c>
       <c r="G32" s="5" t="s">
@@ -2104,7 +2097,7 @@
       <c r="E33" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="13" t="s">
         <v>23</v>
       </c>
       <c r="G33" s="5"/>
@@ -2144,7 +2137,7 @@
       <c r="E34" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="13" t="s">
         <v>23</v>
       </c>
       <c r="G34" s="5"/>
@@ -2173,7 +2166,7 @@
         <v>46</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>70</v>
@@ -2182,7 +2175,7 @@
       <c r="E35" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="13">
         <v>6062</v>
       </c>
       <c r="G35" s="5"/>
@@ -2218,7 +2211,7 @@
       <c r="E36" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="14" t="s">
         <v>23</v>
       </c>
       <c r="G36" s="6" t="s">
@@ -2262,7 +2255,7 @@
       <c r="E37" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="14" t="s">
         <v>23</v>
       </c>
       <c r="G37" s="6" t="s">
@@ -2306,7 +2299,7 @@
       <c r="E38" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="F38" s="14" t="s">
         <v>23</v>
       </c>
       <c r="G38" s="6" t="s">
@@ -2350,7 +2343,7 @@
       <c r="E39" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="F39" s="14" t="s">
         <v>23</v>
       </c>
       <c r="G39" s="6"/>
@@ -2390,7 +2383,7 @@
       <c r="E40" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="F40" s="14" t="s">
         <v>23</v>
       </c>
       <c r="G40" s="6"/>
@@ -2428,8 +2421,8 @@
       <c r="E41" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F41" s="16" t="s">
-        <v>73</v>
+      <c r="F41" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -2462,8 +2455,8 @@
       <c r="E42" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="16" t="s">
-        <v>74</v>
+      <c r="F42" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -2496,8 +2489,8 @@
       <c r="E43" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F43" s="16" t="s">
-        <v>75</v>
+      <c r="F43" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -2530,8 +2523,8 @@
       <c r="E44" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F44" s="16" t="s">
-        <v>76</v>
+      <c r="F44" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
@@ -2564,8 +2557,8 @@
       <c r="E45" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F45" s="16" t="s">
-        <v>77</v>
+      <c r="F45" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
@@ -2598,8 +2591,8 @@
       <c r="E46" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="16" t="s">
-        <v>78</v>
+      <c r="F46" s="14" t="s">
+        <v>77</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -2634,7 +2627,7 @@
       <c r="E47" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F47" s="17" t="s">
+      <c r="F47" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G47" s="7" t="s">
@@ -2678,7 +2671,7 @@
       <c r="E48" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F48" s="17" t="s">
+      <c r="F48" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G48" s="7" t="s">
@@ -2722,7 +2715,7 @@
       <c r="E49" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F49" s="17" t="s">
+      <c r="F49" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G49" s="7" t="s">
@@ -2766,7 +2759,7 @@
       <c r="E50" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F50" s="17" t="s">
+      <c r="F50" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G50" s="7" t="s">
@@ -2810,7 +2803,7 @@
       <c r="E51" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F51" s="17" t="s">
+      <c r="F51" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G51" s="7" t="s">
@@ -2845,14 +2838,14 @@
       <c r="B52" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D52" s="10"/>
+      <c r="D52" s="19"/>
       <c r="E52" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="F52" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G52" s="7" t="s">
@@ -2896,7 +2889,7 @@
       <c r="E53" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="17" t="s">
+      <c r="F53" s="15" t="s">
         <v>67</v>
       </c>
       <c r="G53" s="7">
@@ -2940,7 +2933,7 @@
       <c r="E54" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F54" s="17" t="s">
+      <c r="F54" s="15" t="s">
         <v>68</v>
       </c>
       <c r="G54" s="7">
@@ -2984,7 +2977,7 @@
       <c r="E55" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F55" s="17" t="s">
+      <c r="F55" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G55" s="7"/>
@@ -3024,7 +3017,7 @@
       <c r="E56" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F56" s="17" t="s">
+      <c r="F56" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G56" s="7"/>
@@ -3062,8 +3055,8 @@
       <c r="E57" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F57" s="17" t="s">
-        <v>79</v>
+      <c r="F57" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
@@ -3096,8 +3089,8 @@
       <c r="E58" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F58" s="17" t="s">
-        <v>80</v>
+      <c r="F58" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
@@ -3132,7 +3125,7 @@
       <c r="E59" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F59" s="18" t="s">
+      <c r="F59" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G59" s="8" t="s">
@@ -3176,7 +3169,7 @@
       <c r="E60" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F60" s="18" t="s">
+      <c r="F60" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G60" s="8" t="s">
@@ -3220,7 +3213,7 @@
       <c r="E61" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F61" s="18" t="s">
+      <c r="F61" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G61" s="8" t="s">
@@ -3264,7 +3257,7 @@
       <c r="E62" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F62" s="18" t="s">
+      <c r="F62" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G62" s="8" t="s">
@@ -3308,7 +3301,7 @@
       <c r="E63" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F63" s="18" t="s">
+      <c r="F63" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G63" s="8" t="s">
@@ -3352,7 +3345,7 @@
       <c r="E64" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F64" s="18" t="s">
+      <c r="F64" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G64" s="8"/>
@@ -3392,7 +3385,7 @@
       <c r="E65" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F65" s="18" t="s">
+      <c r="F65" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G65" s="8"/>
@@ -3432,8 +3425,8 @@
       <c r="E66" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F66" s="18" t="s">
-        <v>81</v>
+      <c r="F66" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
@@ -3472,8 +3465,8 @@
       <c r="E67" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F67" s="18" t="s">
-        <v>82</v>
+      <c r="F67" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
@@ -3512,8 +3505,8 @@
       <c r="E68" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F68" s="18" t="s">
-        <v>83</v>
+      <c r="F68" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
@@ -3552,8 +3545,8 @@
       <c r="E69" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F69" s="18" t="s">
-        <v>86</v>
+      <c r="F69" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
@@ -3592,8 +3585,8 @@
       <c r="E70" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F70" s="18" t="s">
-        <v>87</v>
+      <c r="F70" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
@@ -3632,8 +3625,8 @@
       <c r="E71" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F71" s="18" t="s">
-        <v>84</v>
+      <c r="F71" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
@@ -3672,8 +3665,8 @@
       <c r="E72" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F72" s="18" t="s">
-        <v>85</v>
+      <c r="F72" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
@@ -3712,8 +3705,8 @@
       <c r="E73" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F73" s="18" t="s">
-        <v>88</v>
+      <c r="F73" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
@@ -3752,8 +3745,8 @@
       <c r="E74" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F74" s="18" t="s">
-        <v>89</v>
+      <c r="F74" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
@@ -3776,59 +3769,56 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
-      <c r="J75" s="21"/>
-      <c r="K75" s="21"/>
-      <c r="L75" s="21"/>
-      <c r="M75" s="21"/>
-      <c r="N75" s="21"/>
-      <c r="O75" s="21"/>
-      <c r="P75" s="21"/>
-      <c r="Q75" s="21"/>
-      <c r="R75" s="21"/>
-    </row>
-    <row r="76" spans="1:18" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
-      <c r="J76" s="21"/>
-      <c r="K76" s="21"/>
-      <c r="L76" s="21"/>
-      <c r="M76" s="21"/>
-      <c r="N76" s="21"/>
-      <c r="O76" s="21"/>
-      <c r="P76" s="21"/>
-      <c r="Q76" s="21"/>
-      <c r="R76" s="21"/>
-    </row>
-    <row r="77" spans="1:18" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="21"/>
-      <c r="M77" s="21"/>
-      <c r="N77" s="21"/>
-      <c r="O77" s="21"/>
-      <c r="P77" s="21"/>
-      <c r="Q77" s="21"/>
-      <c r="R77" s="21"/>
-    </row>
-    <row r="78" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F78" s="23"/>
+    <row r="75" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+    </row>
+    <row r="76" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+    </row>
+    <row r="77" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/p_parameters/additional_concepts.xlsx
+++ b/p_parameters/additional_concepts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/candaurn/Desktop/ConcePTION-DP4_Migraine/p_parameters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/Repositories/DP4_Github/Demonstration project/ConcePTION-DP4_Migraine/p_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5FFB13-5E45-2F43-82EB-94313969EE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BF72BE-9F0B-7441-B03F-C6D759EA65D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8180" yWindow="540" windowWidth="14280" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="88">
   <si>
     <t>table</t>
   </si>
@@ -192,9 +192,6 @@
   </si>
   <si>
     <t>Migraine_cat_diagnoses</t>
-  </si>
-  <si>
-    <t>mors_helse_under</t>
   </si>
   <si>
     <t>so_unit</t>
@@ -427,9 +424,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -467,7 +464,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -573,7 +570,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -715,7 +712,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -723,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R77"/>
+  <dimension ref="A1:R76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1237,47 +1234,37 @@
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="18"/>
+      <c r="C12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F12" s="10">
+        <v>85466</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="Q12" s="2"/>
-      <c r="R12" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
@@ -1287,21 +1274,21 @@
         <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="10">
-        <v>85466</v>
+        <v>93252</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1321,21 +1308,21 @@
         <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F14" s="10">
-        <v>93252</v>
+        <v>93260</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1355,21 +1342,21 @@
         <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F15" s="10">
-        <v>93260</v>
+        <v>172675</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1389,21 +1376,21 @@
         <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F16" s="10">
-        <v>172675</v>
+        <v>524926</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1415,49 +1402,59 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="10">
-        <v>524926</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
+    <row r="17" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="18" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>21</v>
@@ -1498,10 +1495,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>21</v>
@@ -1539,46 +1536,46 @@
     </row>
     <row r="20" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="E20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
       <c r="K20" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="16" x14ac:dyDescent="0.2">
@@ -1586,13 +1583,13 @@
         <v>30</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>33</v>
@@ -1630,13 +1627,13 @@
         <v>30</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>33</v>
@@ -1674,7 +1671,7 @@
         <v>30</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>38</v>
@@ -1718,7 +1715,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>38</v>
@@ -1759,46 +1756,42 @@
     </row>
     <row r="25" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="4">
-        <v>1</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="Q25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="16" x14ac:dyDescent="0.2">
@@ -1806,10 +1799,10 @@
         <v>46</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>21</v>
@@ -1846,26 +1839,24 @@
         <v>46</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="F27" s="11">
+        <v>3378259</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -1874,36 +1865,32 @@
       <c r="P27" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
     </row>
     <row r="28" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F28" s="11">
-        <v>3378259</v>
+        <v>3378288</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -1916,48 +1903,58 @@
       <c r="R28" s="3"/>
     </row>
     <row r="29" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" s="11">
-        <v>3378288</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
+      <c r="A29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="30" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>21</v>
@@ -1998,10 +1995,10 @@
         <v>18</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>21</v>
@@ -2039,13 +2036,13 @@
     </row>
     <row r="32" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>21</v>
@@ -2056,23 +2053,19 @@
       <c r="F32" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="Q32" s="5" t="s">
         <v>21</v>
@@ -2086,10 +2079,10 @@
         <v>46</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>21</v>
@@ -2126,26 +2119,24 @@
         <v>46</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>21</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D34" s="5"/>
       <c r="E34" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="F34" s="13">
+        <v>6062</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -2154,56 +2145,62 @@
       <c r="P34" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="Q34" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="R34" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
     </row>
     <row r="35" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="5" t="s">
+      <c r="A35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="13">
-        <v>6062</v>
-      </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
+      <c r="C35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="36" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>21</v>
@@ -2244,10 +2241,10 @@
         <v>18</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>21</v>
@@ -2285,13 +2282,13 @@
     </row>
     <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>21</v>
@@ -2302,23 +2299,19 @@
       <c r="F38" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>26</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="Q38" s="6" t="s">
         <v>21</v>
@@ -2332,10 +2325,10 @@
         <v>46</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>21</v>
@@ -2358,7 +2351,7 @@
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
       <c r="P39" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q39" s="6" t="s">
         <v>21</v>
@@ -2372,50 +2365,44 @@
         <v>46</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D40" s="6"/>
       <c r="E40" s="6" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
       <c r="P40" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q40" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="R40" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
     </row>
     <row r="41" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6" t="s">
@@ -2429,7 +2416,7 @@
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
@@ -2446,10 +2433,10 @@
         <v>46</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6" t="s">
@@ -2463,7 +2450,7 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
@@ -2480,10 +2467,10 @@
         <v>46</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6" t="s">
@@ -2497,7 +2484,7 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
@@ -2514,10 +2501,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6" t="s">
@@ -2531,7 +2518,7 @@
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
@@ -2548,10 +2535,10 @@
         <v>46</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6" t="s">
@@ -2565,7 +2552,7 @@
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
@@ -2578,48 +2565,58 @@
       <c r="R45" s="6"/>
     </row>
     <row r="46" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
+      <c r="A46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R46" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="47" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>21</v>
@@ -2660,10 +2657,10 @@
         <v>18</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>21</v>
@@ -2701,13 +2698,13 @@
     </row>
     <row r="49" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>21</v>
@@ -2725,16 +2722,16 @@
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
       <c r="P49" s="7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="Q49" s="7" t="s">
         <v>21</v>
@@ -2748,7 +2745,7 @@
         <v>30</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>65</v>
@@ -2772,7 +2769,7 @@
         <v>36</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
@@ -2787,19 +2784,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>21</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="19"/>
       <c r="E51" s="7" t="s">
         <v>22</v>
       </c>
@@ -2816,7 +2811,7 @@
         <v>36</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
@@ -2831,34 +2826,36 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D52" s="19"/>
+        <v>63</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="E52" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>24</v>
+        <v>66</v>
+      </c>
+      <c r="G52" s="7">
+        <v>1</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
@@ -2870,7 +2867,7 @@
         <v>21</v>
       </c>
       <c r="R52" s="7" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="16" x14ac:dyDescent="0.2">
@@ -2878,13 +2875,13 @@
         <v>30</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>33</v>
@@ -2919,46 +2916,42 @@
     </row>
     <row r="54" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G54" s="7">
-        <v>1</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G54" s="7"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="L54" s="7"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
       <c r="O54" s="7"/>
       <c r="P54" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="Q54" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R54" s="7" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="16" x14ac:dyDescent="0.2">
@@ -2966,10 +2959,10 @@
         <v>46</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>21</v>
@@ -3006,26 +2999,24 @@
         <v>46</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>21</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D56" s="7"/>
       <c r="E56" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
@@ -3034,22 +3025,18 @@
       <c r="P56" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Q56" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R56" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
     </row>
     <row r="57" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7" t="s">
@@ -3063,7 +3050,7 @@
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
       <c r="K57" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
@@ -3076,48 +3063,58 @@
       <c r="R57" s="7"/>
     </row>
     <row r="58" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q58" s="7"/>
-      <c r="R58" s="7"/>
+      <c r="A58" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L58" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q58" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R58" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="59" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>21</v>
@@ -3158,10 +3155,10 @@
         <v>18</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>21</v>
@@ -3199,13 +3196,13 @@
     </row>
     <row r="61" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>21</v>
@@ -3223,22 +3220,22 @@
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
       <c r="P61" s="8" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="Q61" s="8" t="s">
         <v>21</v>
       </c>
       <c r="R61" s="8" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="16" x14ac:dyDescent="0.2">
@@ -3246,7 +3243,7 @@
         <v>30</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>65</v>
@@ -3270,7 +3267,7 @@
         <v>36</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M62" s="8"/>
       <c r="N62" s="8"/>
@@ -3287,13 +3284,13 @@
     </row>
     <row r="63" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>21</v>
@@ -3304,29 +3301,25 @@
       <c r="F63" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G63" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="G63" s="8"/>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L63" s="8" t="s">
-        <v>53</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="L63" s="8"/>
       <c r="M63" s="8"/>
       <c r="N63" s="8"/>
       <c r="O63" s="8"/>
       <c r="P63" s="8" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="Q63" s="8" t="s">
         <v>21</v>
       </c>
       <c r="R63" s="8" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="16" x14ac:dyDescent="0.2">
@@ -3334,10 +3327,10 @@
         <v>46</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>21</v>
@@ -3374,26 +3367,26 @@
         <v>46</v>
       </c>
       <c r="B65" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="D65" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="L65" s="8"/>
       <c r="M65" s="8"/>
@@ -3414,10 +3407,10 @@
         <v>46</v>
       </c>
       <c r="B66" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>21</v>
@@ -3433,7 +3426,7 @@
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L66" s="8"/>
       <c r="M66" s="8"/>
@@ -3454,10 +3447,10 @@
         <v>46</v>
       </c>
       <c r="B67" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>21</v>
@@ -3473,7 +3466,7 @@
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L67" s="8"/>
       <c r="M67" s="8"/>
@@ -3494,10 +3487,10 @@
         <v>46</v>
       </c>
       <c r="B68" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>21</v>
@@ -3506,14 +3499,14 @@
         <v>33</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L68" s="8"/>
       <c r="M68" s="8"/>
@@ -3534,10 +3527,10 @@
         <v>46</v>
       </c>
       <c r="B69" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>21</v>
@@ -3553,7 +3546,7 @@
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L69" s="8"/>
       <c r="M69" s="8"/>
@@ -3574,10 +3567,10 @@
         <v>46</v>
       </c>
       <c r="B70" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>21</v>
@@ -3586,14 +3579,14 @@
         <v>33</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L70" s="8"/>
       <c r="M70" s="8"/>
@@ -3614,10 +3607,10 @@
         <v>46</v>
       </c>
       <c r="B71" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>21</v>
@@ -3633,7 +3626,7 @@
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L71" s="8"/>
       <c r="M71" s="8"/>
@@ -3654,10 +3647,10 @@
         <v>46</v>
       </c>
       <c r="B72" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>21</v>
@@ -3666,14 +3659,14 @@
         <v>33</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L72" s="8"/>
       <c r="M72" s="8"/>
@@ -3694,10 +3687,10 @@
         <v>46</v>
       </c>
       <c r="B73" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>21</v>
@@ -3713,7 +3706,7 @@
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L73" s="8"/>
       <c r="M73" s="8"/>
@@ -3730,44 +3723,21 @@
       </c>
     </row>
     <row r="74" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F74" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
-      <c r="P74" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q74" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="R74" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
     </row>
     <row r="75" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="D75" s="1"/>
@@ -3803,28 +3773,10 @@
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
     </row>
-    <row r="77" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C51:D51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/p_parameters/additional_concepts.xlsx
+++ b/p_parameters/additional_concepts.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/Repositories/DP4_Github/Demonstration project/ConcePTION-DP4_Migraine/p_parameters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\durable\ConcePTION\DP4\DP4_Migraine_Algorithm\DP4_Migraine_20241225\p_parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BF72BE-9F0B-7441-B03F-C6D759EA65D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6296C8C-A9E6-4A7B-9D6F-2F7FB8EBE8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29445" yWindow="4740" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$73</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="124">
   <si>
     <t>table</t>
   </si>
@@ -300,6 +303,114 @@
   </si>
   <si>
     <t>027987066</t>
+  </si>
+  <si>
+    <t>PARITY_checkbox</t>
+  </si>
+  <si>
+    <t>obesity_checkbox</t>
+  </si>
+  <si>
+    <t>blht_checkbox</t>
+  </si>
+  <si>
+    <t>bldm_checkbox</t>
+  </si>
+  <si>
+    <t>obesity_event</t>
+  </si>
+  <si>
+    <t>blht_event</t>
+  </si>
+  <si>
+    <t>bldm_event</t>
+  </si>
+  <si>
+    <t>bldep_event</t>
+  </si>
+  <si>
+    <t>du_medicines</t>
+  </si>
+  <si>
+    <t>PBMI_height</t>
+  </si>
+  <si>
+    <t>PBMI_weight</t>
+  </si>
+  <si>
+    <t>PARITY</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>paritet_5</t>
+  </si>
+  <si>
+    <t>OW</t>
+  </si>
+  <si>
+    <t>kmi_foer</t>
+  </si>
+  <si>
+    <t>BLHT</t>
+  </si>
+  <si>
+    <t>hypertensjon_kronisk</t>
+  </si>
+  <si>
+    <t>BLDM</t>
+  </si>
+  <si>
+    <t>BLOB</t>
+  </si>
+  <si>
+    <t>BLDEP</t>
+  </si>
+  <si>
+    <t>DU_MED</t>
+  </si>
+  <si>
+    <t>PARITE</t>
+  </si>
+  <si>
+    <t>SAIL</t>
+  </si>
+  <si>
+    <t>SERVICE_USER_PARITY_CD</t>
+  </si>
+  <si>
+    <t>PBMI_h</t>
+  </si>
+  <si>
+    <t>SERVICE_USER_HEIGHT</t>
+  </si>
+  <si>
+    <t>PBMI_w</t>
+  </si>
+  <si>
+    <t>SERVICE_USER_WEIGHT_KG</t>
+  </si>
+  <si>
+    <t>EVENT_CD</t>
+  </si>
+  <si>
+    <t>aiemmatsynnytykset</t>
+  </si>
+  <si>
+    <t>apituus</t>
+  </si>
+  <si>
+    <t>apaino</t>
+  </si>
+  <si>
+    <t>PARTI_PR</t>
+  </si>
+  <si>
+    <t>ALTEZZA_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PESO_M </t>
   </si>
 </sst>
 </file>
@@ -720,25 +831,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R76"/>
+  <dimension ref="A1:R119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="25.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -794,7 +905,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -838,7 +949,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -882,7 +993,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -926,7 +1037,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -968,7 +1079,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -1012,7 +1123,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -1064,7 +1175,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -1108,7 +1219,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -1152,7 +1263,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
@@ -1192,7 +1303,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -1232,7 +1343,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
@@ -1266,7 +1377,7 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
@@ -1300,7 +1411,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
@@ -1334,7 +1445,7 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
@@ -1368,7 +1479,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -1402,7 +1513,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -1446,7 +1557,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -1490,7 +1601,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -1534,7 +1645,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
@@ -1578,7 +1689,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
@@ -1622,7 +1733,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>30</v>
       </c>
@@ -1666,7 +1777,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
@@ -1710,7 +1821,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
@@ -1754,7 +1865,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>46</v>
       </c>
@@ -1794,7 +1905,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>46</v>
       </c>
@@ -1834,7 +1945,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>46</v>
       </c>
@@ -1868,7 +1979,7 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>46</v>
       </c>
@@ -1902,7 +2013,7 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>18</v>
       </c>
@@ -1946,7 +2057,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>18</v>
       </c>
@@ -1990,7 +2101,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>18</v>
       </c>
@@ -2034,7 +2145,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>46</v>
       </c>
@@ -2074,7 +2185,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>46</v>
       </c>
@@ -2114,7 +2225,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>46</v>
       </c>
@@ -2148,7 +2259,7 @@
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
     </row>
-    <row r="35" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>18</v>
       </c>
@@ -2192,7 +2303,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>18</v>
       </c>
@@ -2236,7 +2347,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>18</v>
       </c>
@@ -2280,7 +2391,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>46</v>
       </c>
@@ -2320,7 +2431,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>46</v>
       </c>
@@ -2360,7 +2471,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>46</v>
       </c>
@@ -2394,7 +2505,7 @@
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
     </row>
-    <row r="41" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>46</v>
       </c>
@@ -2428,7 +2539,7 @@
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
     </row>
-    <row r="42" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>46</v>
       </c>
@@ -2462,7 +2573,7 @@
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
     </row>
-    <row r="43" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>46</v>
       </c>
@@ -2496,7 +2607,7 @@
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
     </row>
-    <row r="44" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>46</v>
       </c>
@@ -2530,7 +2641,7 @@
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
     </row>
-    <row r="45" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>46</v>
       </c>
@@ -2564,7 +2675,7 @@
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
     </row>
-    <row r="46" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>18</v>
       </c>
@@ -2608,7 +2719,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>18</v>
       </c>
@@ -2652,7 +2763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>18</v>
       </c>
@@ -2696,7 +2807,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>30</v>
       </c>
@@ -2740,7 +2851,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>30</v>
       </c>
@@ -2784,7 +2895,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>30</v>
       </c>
@@ -2826,7 +2937,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>30</v>
       </c>
@@ -2870,7 +2981,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>30</v>
       </c>
@@ -2914,7 +3025,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>46</v>
       </c>
@@ -2954,7 +3065,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>46</v>
       </c>
@@ -2994,7 +3105,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>46</v>
       </c>
@@ -3028,7 +3139,7 @@
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
     </row>
-    <row r="57" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>46</v>
       </c>
@@ -3062,7 +3173,7 @@
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
     </row>
-    <row r="58" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>18</v>
       </c>
@@ -3106,7 +3217,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>18</v>
       </c>
@@ -3150,7 +3261,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>18</v>
       </c>
@@ -3194,7 +3305,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>30</v>
       </c>
@@ -3238,7 +3349,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>30</v>
       </c>
@@ -3282,7 +3393,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>46</v>
       </c>
@@ -3322,7 +3433,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>46</v>
       </c>
@@ -3362,7 +3473,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>46</v>
       </c>
@@ -3402,7 +3513,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>46</v>
       </c>
@@ -3442,7 +3553,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>46</v>
       </c>
@@ -3482,7 +3593,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>46</v>
       </c>
@@ -3522,7 +3633,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>46</v>
       </c>
@@ -3562,7 +3673,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>46</v>
       </c>
@@ -3602,7 +3713,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>46</v>
       </c>
@@ -3642,7 +3753,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>46</v>
       </c>
@@ -3682,7 +3793,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>46</v>
       </c>
@@ -3722,58 +3833,1498 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="9"/>
+    <row r="74" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>30</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" t="s">
+        <v>88</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
+      <c r="K74" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
+      <c r="P74" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
-    </row>
-    <row r="75" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="9"/>
+      <c r="R74" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" t="s">
+        <v>89</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
+      <c r="K75" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
+      <c r="P75" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
-    </row>
-    <row r="76" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="1"/>
+      <c r="R75" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>30</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" t="s">
+        <v>90</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1</v>
+      </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
+      <c r="K76" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
+      <c r="P76" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
     </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>30</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77" t="s">
+        <v>106</v>
+      </c>
+      <c r="E77" t="s">
+        <v>33</v>
+      </c>
+      <c r="F77" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77">
+        <v>3</v>
+      </c>
+      <c r="K77" t="s">
+        <v>35</v>
+      </c>
+      <c r="L77" t="s">
+        <v>36</v>
+      </c>
+      <c r="P77" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" t="s">
+        <v>92</v>
+      </c>
+      <c r="D78" t="s">
+        <v>107</v>
+      </c>
+      <c r="E78" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G78" t="s">
+        <v>24</v>
+      </c>
+      <c r="K78" t="s">
+        <v>25</v>
+      </c>
+      <c r="L78" t="s">
+        <v>26</v>
+      </c>
+      <c r="P78" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" t="s">
+        <v>93</v>
+      </c>
+      <c r="D79" t="s">
+        <v>104</v>
+      </c>
+      <c r="E79" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G79" t="s">
+        <v>24</v>
+      </c>
+      <c r="K79" t="s">
+        <v>25</v>
+      </c>
+      <c r="L79" t="s">
+        <v>26</v>
+      </c>
+      <c r="P79" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" t="s">
+        <v>94</v>
+      </c>
+      <c r="D80" t="s">
+        <v>106</v>
+      </c>
+      <c r="E80" t="s">
+        <v>22</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G80" t="s">
+        <v>24</v>
+      </c>
+      <c r="K80" t="s">
+        <v>25</v>
+      </c>
+      <c r="L80" t="s">
+        <v>26</v>
+      </c>
+      <c r="P80" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" t="s">
+        <v>95</v>
+      </c>
+      <c r="D81" t="s">
+        <v>108</v>
+      </c>
+      <c r="E81" t="s">
+        <v>22</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G81" t="s">
+        <v>24</v>
+      </c>
+      <c r="K81" t="s">
+        <v>25</v>
+      </c>
+      <c r="L81" t="s">
+        <v>26</v>
+      </c>
+      <c r="P81" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>46</v>
+      </c>
+      <c r="B82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" t="s">
+        <v>96</v>
+      </c>
+      <c r="D82" t="s">
+        <v>109</v>
+      </c>
+      <c r="E82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F82" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K82" t="s">
+        <v>48</v>
+      </c>
+      <c r="P82" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C83" t="s">
+        <v>88</v>
+      </c>
+      <c r="D83" t="s">
+        <v>99</v>
+      </c>
+      <c r="E83" t="s">
+        <v>100</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="K83" t="s">
+        <v>35</v>
+      </c>
+      <c r="L83" t="s">
+        <v>36</v>
+      </c>
+      <c r="P83" t="s">
+        <v>37</v>
+      </c>
+      <c r="R83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>18</v>
+      </c>
+      <c r="B84" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84" t="s">
+        <v>92</v>
+      </c>
+      <c r="D84" t="s">
+        <v>107</v>
+      </c>
+      <c r="E84" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G84" t="s">
+        <v>24</v>
+      </c>
+      <c r="K84" t="s">
+        <v>25</v>
+      </c>
+      <c r="L84" t="s">
+        <v>26</v>
+      </c>
+      <c r="P84" t="s">
+        <v>27</v>
+      </c>
+      <c r="R84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85" t="s">
+        <v>53</v>
+      </c>
+      <c r="C85" t="s">
+        <v>93</v>
+      </c>
+      <c r="D85" t="s">
+        <v>104</v>
+      </c>
+      <c r="E85" t="s">
+        <v>22</v>
+      </c>
+      <c r="F85" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G85" t="s">
+        <v>24</v>
+      </c>
+      <c r="K85" t="s">
+        <v>25</v>
+      </c>
+      <c r="L85" t="s">
+        <v>26</v>
+      </c>
+      <c r="P85" t="s">
+        <v>27</v>
+      </c>
+      <c r="R85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86" t="s">
+        <v>53</v>
+      </c>
+      <c r="C86" t="s">
+        <v>94</v>
+      </c>
+      <c r="D86" t="s">
+        <v>106</v>
+      </c>
+      <c r="E86" t="s">
+        <v>22</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K86" t="s">
+        <v>25</v>
+      </c>
+      <c r="L86" t="s">
+        <v>26</v>
+      </c>
+      <c r="P86" t="s">
+        <v>27</v>
+      </c>
+      <c r="R86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87" t="s">
+        <v>53</v>
+      </c>
+      <c r="C87" t="s">
+        <v>95</v>
+      </c>
+      <c r="D87" t="s">
+        <v>108</v>
+      </c>
+      <c r="E87" t="s">
+        <v>22</v>
+      </c>
+      <c r="F87" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K87" t="s">
+        <v>25</v>
+      </c>
+      <c r="L87" t="s">
+        <v>26</v>
+      </c>
+      <c r="P87" t="s">
+        <v>27</v>
+      </c>
+      <c r="R87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" t="s">
+        <v>53</v>
+      </c>
+      <c r="C88" t="s">
+        <v>96</v>
+      </c>
+      <c r="D88" t="s">
+        <v>109</v>
+      </c>
+      <c r="E88" t="s">
+        <v>22</v>
+      </c>
+      <c r="F88" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K88" t="s">
+        <v>48</v>
+      </c>
+      <c r="P88" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C89" t="s">
+        <v>92</v>
+      </c>
+      <c r="D89" t="s">
+        <v>107</v>
+      </c>
+      <c r="E89" t="s">
+        <v>22</v>
+      </c>
+      <c r="F89" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G89" t="s">
+        <v>24</v>
+      </c>
+      <c r="K89" t="s">
+        <v>25</v>
+      </c>
+      <c r="L89" t="s">
+        <v>26</v>
+      </c>
+      <c r="P89" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90" t="s">
+        <v>60</v>
+      </c>
+      <c r="C90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D90" t="s">
+        <v>104</v>
+      </c>
+      <c r="E90" t="s">
+        <v>22</v>
+      </c>
+      <c r="F90" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G90" t="s">
+        <v>24</v>
+      </c>
+      <c r="K90" t="s">
+        <v>25</v>
+      </c>
+      <c r="L90" t="s">
+        <v>26</v>
+      </c>
+      <c r="P90" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>18</v>
+      </c>
+      <c r="B91" t="s">
+        <v>60</v>
+      </c>
+      <c r="C91" t="s">
+        <v>94</v>
+      </c>
+      <c r="D91" t="s">
+        <v>106</v>
+      </c>
+      <c r="E91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F91" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G91" t="s">
+        <v>24</v>
+      </c>
+      <c r="K91" t="s">
+        <v>25</v>
+      </c>
+      <c r="L91" t="s">
+        <v>26</v>
+      </c>
+      <c r="P91" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>18</v>
+      </c>
+      <c r="B92" t="s">
+        <v>60</v>
+      </c>
+      <c r="C92" t="s">
+        <v>95</v>
+      </c>
+      <c r="D92" t="s">
+        <v>108</v>
+      </c>
+      <c r="E92" t="s">
+        <v>22</v>
+      </c>
+      <c r="F92" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G92" t="s">
+        <v>24</v>
+      </c>
+      <c r="K92" t="s">
+        <v>25</v>
+      </c>
+      <c r="L92" t="s">
+        <v>26</v>
+      </c>
+      <c r="P92" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>46</v>
+      </c>
+      <c r="B93" t="s">
+        <v>60</v>
+      </c>
+      <c r="C93" t="s">
+        <v>96</v>
+      </c>
+      <c r="D93" t="s">
+        <v>109</v>
+      </c>
+      <c r="E93" t="s">
+        <v>22</v>
+      </c>
+      <c r="F93" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K93" t="s">
+        <v>48</v>
+      </c>
+      <c r="P93" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>30</v>
+      </c>
+      <c r="B94" t="s">
+        <v>111</v>
+      </c>
+      <c r="C94" t="s">
+        <v>88</v>
+      </c>
+      <c r="D94" t="s">
+        <v>99</v>
+      </c>
+      <c r="E94" t="s">
+        <v>100</v>
+      </c>
+      <c r="F94" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="K94" t="s">
+        <v>35</v>
+      </c>
+      <c r="L94" t="s">
+        <v>36</v>
+      </c>
+      <c r="P94" t="s">
+        <v>37</v>
+      </c>
+      <c r="R94" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95" t="s">
+        <v>111</v>
+      </c>
+      <c r="C95" t="s">
+        <v>97</v>
+      </c>
+      <c r="D95" t="s">
+        <v>113</v>
+      </c>
+      <c r="E95" t="s">
+        <v>100</v>
+      </c>
+      <c r="F95" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="K95" t="s">
+        <v>35</v>
+      </c>
+      <c r="L95" t="s">
+        <v>36</v>
+      </c>
+      <c r="P95" t="s">
+        <v>37</v>
+      </c>
+      <c r="R95" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96" t="s">
+        <v>111</v>
+      </c>
+      <c r="C96" t="s">
+        <v>98</v>
+      </c>
+      <c r="D96" t="s">
+        <v>115</v>
+      </c>
+      <c r="E96" t="s">
+        <v>100</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="K96" t="s">
+        <v>35</v>
+      </c>
+      <c r="L96" t="s">
+        <v>36</v>
+      </c>
+      <c r="P96" t="s">
+        <v>37</v>
+      </c>
+      <c r="R96" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>30</v>
+      </c>
+      <c r="B97" t="s">
+        <v>111</v>
+      </c>
+      <c r="C97" t="s">
+        <v>90</v>
+      </c>
+      <c r="D97" t="s">
+        <v>104</v>
+      </c>
+      <c r="E97" t="s">
+        <v>100</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="K97" t="s">
+        <v>35</v>
+      </c>
+      <c r="L97" t="s">
+        <v>36</v>
+      </c>
+      <c r="P97" t="s">
+        <v>37</v>
+      </c>
+      <c r="R97" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>30</v>
+      </c>
+      <c r="B98" t="s">
+        <v>111</v>
+      </c>
+      <c r="C98" t="s">
+        <v>91</v>
+      </c>
+      <c r="D98" t="s">
+        <v>106</v>
+      </c>
+      <c r="E98" t="s">
+        <v>100</v>
+      </c>
+      <c r="F98" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="K98" t="s">
+        <v>35</v>
+      </c>
+      <c r="L98" t="s">
+        <v>36</v>
+      </c>
+      <c r="P98" t="s">
+        <v>37</v>
+      </c>
+      <c r="R98" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99" t="s">
+        <v>111</v>
+      </c>
+      <c r="C99" t="s">
+        <v>92</v>
+      </c>
+      <c r="D99" t="s">
+        <v>107</v>
+      </c>
+      <c r="E99" t="s">
+        <v>22</v>
+      </c>
+      <c r="F99" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G99" t="s">
+        <v>24</v>
+      </c>
+      <c r="K99" t="s">
+        <v>25</v>
+      </c>
+      <c r="L99" t="s">
+        <v>26</v>
+      </c>
+      <c r="P99" t="s">
+        <v>27</v>
+      </c>
+      <c r="R99" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>18</v>
+      </c>
+      <c r="B100" t="s">
+        <v>111</v>
+      </c>
+      <c r="C100" t="s">
+        <v>93</v>
+      </c>
+      <c r="D100" t="s">
+        <v>104</v>
+      </c>
+      <c r="E100" t="s">
+        <v>22</v>
+      </c>
+      <c r="F100" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G100" t="s">
+        <v>24</v>
+      </c>
+      <c r="K100" t="s">
+        <v>25</v>
+      </c>
+      <c r="L100" t="s">
+        <v>26</v>
+      </c>
+      <c r="P100" t="s">
+        <v>27</v>
+      </c>
+      <c r="R100" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>18</v>
+      </c>
+      <c r="B101" t="s">
+        <v>111</v>
+      </c>
+      <c r="C101" t="s">
+        <v>94</v>
+      </c>
+      <c r="D101" t="s">
+        <v>106</v>
+      </c>
+      <c r="E101" t="s">
+        <v>22</v>
+      </c>
+      <c r="F101" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G101" t="s">
+        <v>24</v>
+      </c>
+      <c r="K101" t="s">
+        <v>25</v>
+      </c>
+      <c r="L101" t="s">
+        <v>26</v>
+      </c>
+      <c r="P101" t="s">
+        <v>27</v>
+      </c>
+      <c r="R101" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>18</v>
+      </c>
+      <c r="B102" t="s">
+        <v>111</v>
+      </c>
+      <c r="C102" t="s">
+        <v>95</v>
+      </c>
+      <c r="D102" t="s">
+        <v>108</v>
+      </c>
+      <c r="E102" t="s">
+        <v>22</v>
+      </c>
+      <c r="F102" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G102" t="s">
+        <v>24</v>
+      </c>
+      <c r="K102" t="s">
+        <v>25</v>
+      </c>
+      <c r="L102" t="s">
+        <v>26</v>
+      </c>
+      <c r="P102" t="s">
+        <v>27</v>
+      </c>
+      <c r="R102" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>46</v>
+      </c>
+      <c r="B103" t="s">
+        <v>111</v>
+      </c>
+      <c r="C103" t="s">
+        <v>96</v>
+      </c>
+      <c r="D103" t="s">
+        <v>109</v>
+      </c>
+      <c r="E103" t="s">
+        <v>22</v>
+      </c>
+      <c r="F103" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K103" t="s">
+        <v>48</v>
+      </c>
+      <c r="P103" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>30</v>
+      </c>
+      <c r="B104" t="s">
+        <v>63</v>
+      </c>
+      <c r="C104" t="s">
+        <v>88</v>
+      </c>
+      <c r="D104" t="s">
+        <v>99</v>
+      </c>
+      <c r="E104" t="s">
+        <v>100</v>
+      </c>
+      <c r="F104" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="K104" t="s">
+        <v>35</v>
+      </c>
+      <c r="L104" t="s">
+        <v>36</v>
+      </c>
+      <c r="P104" t="s">
+        <v>37</v>
+      </c>
+      <c r="R104" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>30</v>
+      </c>
+      <c r="B105" t="s">
+        <v>63</v>
+      </c>
+      <c r="C105" t="s">
+        <v>97</v>
+      </c>
+      <c r="D105" t="s">
+        <v>113</v>
+      </c>
+      <c r="E105" t="s">
+        <v>100</v>
+      </c>
+      <c r="F105" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="K105" t="s">
+        <v>35</v>
+      </c>
+      <c r="L105" t="s">
+        <v>36</v>
+      </c>
+      <c r="P105" t="s">
+        <v>37</v>
+      </c>
+      <c r="R105" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>30</v>
+      </c>
+      <c r="B106" t="s">
+        <v>63</v>
+      </c>
+      <c r="C106" t="s">
+        <v>98</v>
+      </c>
+      <c r="D106" t="s">
+        <v>115</v>
+      </c>
+      <c r="E106" t="s">
+        <v>100</v>
+      </c>
+      <c r="F106" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="K106" t="s">
+        <v>35</v>
+      </c>
+      <c r="L106" t="s">
+        <v>36</v>
+      </c>
+      <c r="P106" t="s">
+        <v>37</v>
+      </c>
+      <c r="R106" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>18</v>
+      </c>
+      <c r="B107" t="s">
+        <v>63</v>
+      </c>
+      <c r="C107" t="s">
+        <v>92</v>
+      </c>
+      <c r="D107" t="s">
+        <v>107</v>
+      </c>
+      <c r="E107" t="s">
+        <v>22</v>
+      </c>
+      <c r="F107" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G107" t="s">
+        <v>24</v>
+      </c>
+      <c r="K107" t="s">
+        <v>25</v>
+      </c>
+      <c r="L107" t="s">
+        <v>26</v>
+      </c>
+      <c r="P107" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>18</v>
+      </c>
+      <c r="B108" t="s">
+        <v>63</v>
+      </c>
+      <c r="C108" t="s">
+        <v>93</v>
+      </c>
+      <c r="D108" t="s">
+        <v>104</v>
+      </c>
+      <c r="E108" t="s">
+        <v>22</v>
+      </c>
+      <c r="F108" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G108" t="s">
+        <v>24</v>
+      </c>
+      <c r="K108" t="s">
+        <v>25</v>
+      </c>
+      <c r="L108" t="s">
+        <v>26</v>
+      </c>
+      <c r="P108" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>18</v>
+      </c>
+      <c r="B109" t="s">
+        <v>63</v>
+      </c>
+      <c r="C109" t="s">
+        <v>94</v>
+      </c>
+      <c r="D109" t="s">
+        <v>106</v>
+      </c>
+      <c r="E109" t="s">
+        <v>22</v>
+      </c>
+      <c r="F109" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G109" t="s">
+        <v>24</v>
+      </c>
+      <c r="K109" t="s">
+        <v>25</v>
+      </c>
+      <c r="L109" t="s">
+        <v>26</v>
+      </c>
+      <c r="P109" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>18</v>
+      </c>
+      <c r="B110" t="s">
+        <v>63</v>
+      </c>
+      <c r="C110" t="s">
+        <v>95</v>
+      </c>
+      <c r="D110" t="s">
+        <v>108</v>
+      </c>
+      <c r="E110" t="s">
+        <v>22</v>
+      </c>
+      <c r="F110" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G110" t="s">
+        <v>24</v>
+      </c>
+      <c r="K110" t="s">
+        <v>25</v>
+      </c>
+      <c r="L110" t="s">
+        <v>26</v>
+      </c>
+      <c r="P110" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>46</v>
+      </c>
+      <c r="B111" t="s">
+        <v>63</v>
+      </c>
+      <c r="C111" t="s">
+        <v>96</v>
+      </c>
+      <c r="D111" t="s">
+        <v>109</v>
+      </c>
+      <c r="E111" t="s">
+        <v>22</v>
+      </c>
+      <c r="F111" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K111" t="s">
+        <v>48</v>
+      </c>
+      <c r="P111" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>30</v>
+      </c>
+      <c r="B112" t="s">
+        <v>68</v>
+      </c>
+      <c r="C112" t="s">
+        <v>88</v>
+      </c>
+      <c r="D112" t="s">
+        <v>99</v>
+      </c>
+      <c r="E112" t="s">
+        <v>100</v>
+      </c>
+      <c r="F112" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="K112" t="s">
+        <v>35</v>
+      </c>
+      <c r="L112" t="s">
+        <v>36</v>
+      </c>
+      <c r="P112" t="s">
+        <v>37</v>
+      </c>
+      <c r="R112" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>30</v>
+      </c>
+      <c r="B113" t="s">
+        <v>68</v>
+      </c>
+      <c r="C113" t="s">
+        <v>97</v>
+      </c>
+      <c r="D113" t="s">
+        <v>113</v>
+      </c>
+      <c r="E113" t="s">
+        <v>100</v>
+      </c>
+      <c r="F113" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="K113" t="s">
+        <v>35</v>
+      </c>
+      <c r="L113" t="s">
+        <v>36</v>
+      </c>
+      <c r="P113" t="s">
+        <v>37</v>
+      </c>
+      <c r="R113" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>30</v>
+      </c>
+      <c r="B114" t="s">
+        <v>68</v>
+      </c>
+      <c r="C114" t="s">
+        <v>98</v>
+      </c>
+      <c r="D114" t="s">
+        <v>115</v>
+      </c>
+      <c r="E114" t="s">
+        <v>100</v>
+      </c>
+      <c r="F114" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="K114" t="s">
+        <v>35</v>
+      </c>
+      <c r="L114" t="s">
+        <v>36</v>
+      </c>
+      <c r="P114" t="s">
+        <v>37</v>
+      </c>
+      <c r="R114" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>18</v>
+      </c>
+      <c r="B115" t="s">
+        <v>68</v>
+      </c>
+      <c r="C115" t="s">
+        <v>92</v>
+      </c>
+      <c r="D115" t="s">
+        <v>107</v>
+      </c>
+      <c r="E115" t="s">
+        <v>22</v>
+      </c>
+      <c r="F115" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G115" t="s">
+        <v>24</v>
+      </c>
+      <c r="K115" t="s">
+        <v>25</v>
+      </c>
+      <c r="L115" t="s">
+        <v>26</v>
+      </c>
+      <c r="P115" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>18</v>
+      </c>
+      <c r="B116" t="s">
+        <v>68</v>
+      </c>
+      <c r="C116" t="s">
+        <v>93</v>
+      </c>
+      <c r="D116" t="s">
+        <v>104</v>
+      </c>
+      <c r="E116" t="s">
+        <v>22</v>
+      </c>
+      <c r="F116" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G116" t="s">
+        <v>24</v>
+      </c>
+      <c r="K116" t="s">
+        <v>25</v>
+      </c>
+      <c r="L116" t="s">
+        <v>26</v>
+      </c>
+      <c r="P116" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>18</v>
+      </c>
+      <c r="B117" t="s">
+        <v>68</v>
+      </c>
+      <c r="C117" t="s">
+        <v>94</v>
+      </c>
+      <c r="D117" t="s">
+        <v>106</v>
+      </c>
+      <c r="E117" t="s">
+        <v>22</v>
+      </c>
+      <c r="F117" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G117" t="s">
+        <v>24</v>
+      </c>
+      <c r="K117" t="s">
+        <v>25</v>
+      </c>
+      <c r="L117" t="s">
+        <v>26</v>
+      </c>
+      <c r="P117" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>18</v>
+      </c>
+      <c r="B118" t="s">
+        <v>68</v>
+      </c>
+      <c r="C118" t="s">
+        <v>95</v>
+      </c>
+      <c r="D118" t="s">
+        <v>108</v>
+      </c>
+      <c r="E118" t="s">
+        <v>22</v>
+      </c>
+      <c r="F118" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G118" t="s">
+        <v>24</v>
+      </c>
+      <c r="K118" t="s">
+        <v>25</v>
+      </c>
+      <c r="L118" t="s">
+        <v>26</v>
+      </c>
+      <c r="P118" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>46</v>
+      </c>
+      <c r="B119" t="s">
+        <v>68</v>
+      </c>
+      <c r="C119" t="s">
+        <v>96</v>
+      </c>
+      <c r="D119" t="s">
+        <v>109</v>
+      </c>
+      <c r="E119" t="s">
+        <v>22</v>
+      </c>
+      <c r="F119" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K119" t="s">
+        <v>48</v>
+      </c>
+      <c r="P119" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:R73" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="C51:D51"/>
